--- a/model_exports/labels/2.0_False_False_9_4.xlsx
+++ b/model_exports/labels/2.0_False_False_9_4.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C731"/>
+  <dimension ref="A1:C732"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,20 +453,20 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>t-1033470726521544704</t>
+          <t>t-1025792018793021440</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>t-494463913853874176</t>
+          <t>t-504042718663036928</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -479,7 +479,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>t-494829977268146176</t>
+          <t>t-504366068648148992</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -492,7 +492,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>t-495010606047821824</t>
+          <t>t-504850389129129984</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -505,7 +505,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>t-495017350790668289</t>
+          <t>t-504998704118394880</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -518,7 +518,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>t-495805012929708033</t>
+          <t>t-561169293573115904</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -531,7 +531,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>t-495123711071387649</t>
+          <t>t-599446630732079104</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -544,7 +544,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>t-561169293573115904</t>
+          <t>t-1016827484665499650</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -557,20 +557,20 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>t-571473938481602560</t>
+          <t>t-1016832637904695296</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>t-599446630732079104</t>
+          <t>t-1027818664391847936</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -583,33 +583,33 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>t-624374054338867201</t>
+          <t>t-1027909740905553920</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>t-521738184288251906</t>
+          <t>t-977115036585021440</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>t-521768704259162112</t>
+          <t>t-575319219870437377</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -622,7 +622,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>t-548786999432605696</t>
+          <t>t-575466667171426304</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -635,7 +635,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>t-549031298929786880</t>
+          <t>t-605091889558261760</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -648,46 +648,46 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>t-551476214402387968</t>
+          <t>t-605138894867161088</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>t-551489050045988864</t>
+          <t>t-605351836636311552</t>
         </is>
       </c>
       <c r="B18" t="n">
         <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>t-583290347863851008</t>
+          <t>t-681917420068564992</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>t-588022316359151617</t>
+          <t>t-682618491283857408</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -700,33 +700,33 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>t-588515231380348928</t>
+          <t>t-683960479224586240</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>t-588525414441553920</t>
+          <t>t-684033292694327296</t>
         </is>
       </c>
       <c r="B22" t="n">
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>t-588659923807907840</t>
+          <t>t-684082364117585920</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -739,7 +739,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>t-622509518346268672</t>
+          <t>t-684154242035089408</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -752,20 +752,20 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>t-694942679688437760</t>
+          <t>t-767329938500308992</t>
         </is>
       </c>
       <c r="B25" t="n">
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>t-695354495606259712</t>
+          <t>t-830539164638703616</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -778,46 +778,46 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>t-696194593700712448</t>
+          <t>t-867771334083923968</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>t-707911328145477632</t>
+          <t>t-889549980888969217</t>
         </is>
       </c>
       <c r="B28" t="n">
         <v>1</v>
       </c>
       <c r="C28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>t-707931200627875840</t>
+          <t>t-889892042435854336</t>
         </is>
       </c>
       <c r="B29" t="n">
         <v>1</v>
       </c>
       <c r="C29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>t-708036809603698689</t>
+          <t>t-890080777769283584</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -830,7 +830,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>t-708038329514790912</t>
+          <t>t-924109747627929600</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -843,20 +843,20 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>t-708041345638776832</t>
+          <t>t-950310866641149952</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>t-708249950530961408</t>
+          <t>t-960921688975331329</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -869,20 +869,20 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>t-708273072424554497</t>
+          <t>t-961028171192852485</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>t-708363296160747520</t>
+          <t>t-961254369663602688</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -895,11 +895,11 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>t-708384601509601280</t>
+          <t>t-965645492616036357</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -908,33 +908,33 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>t-708389352393539585</t>
+          <t>t-965648872474398721</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>t-708444180087971840</t>
+          <t>t-965652051077357569</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>t-709190294621835264</t>
+          <t>t-966072585061625856</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -947,50 +947,50 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>t-709228058117480449</t>
+          <t>t-966155045300588545</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>t-709405662791372802</t>
+          <t>t-966356829596016640</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>t-709892861110657024</t>
+          <t>t-966362179913093121</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>t-710265095104946176</t>
+          <t>t-966449125788090370</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>1</v>
@@ -999,7 +999,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>t-719525216439910400</t>
+          <t>t-966450069024239616</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -1012,11 +1012,11 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>t-719704738913083392</t>
+          <t>t-966465261950906369</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -1025,11 +1025,11 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>t-771105696226025472</t>
+          <t>t-966698278606856197</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -1038,7 +1038,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>t-826627277026791424</t>
+          <t>t-966704060270370817</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -1051,7 +1051,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>t-871116400701706241</t>
+          <t>t-966706278016999424</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -1064,33 +1064,33 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>t-871834189787791364</t>
+          <t>t-966769885220163586</t>
         </is>
       </c>
       <c r="B49" t="n">
         <v>1</v>
       </c>
       <c r="C49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>t-872075702203559936</t>
+          <t>t-977248381662892039</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>t-872158265681096708</t>
+          <t>t-977294782048428032</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -1103,20 +1103,20 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>t-876890893143298050</t>
+          <t>t-1018804138195513344</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>t-876899745704415232</t>
+          <t>t-1018807229267496962</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -1129,7 +1129,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>t-876909191105048577</t>
+          <t>t-1018819644377923585</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -1142,33 +1142,33 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>t-876910840670302209</t>
+          <t>t-1018962868379750402</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>t-876983597760172032</t>
+          <t>t-1019003195874512897</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>t-877064271393370112</t>
+          <t>t-1019014466770333697</t>
         </is>
       </c>
       <c r="B57" t="n">
@@ -1181,7 +1181,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>t-877647799629733893</t>
+          <t>t-1019698120098222080</t>
         </is>
       </c>
       <c r="B58" t="n">
@@ -1194,7 +1194,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>t-877649383340298240</t>
+          <t>t-499691919128018944</t>
         </is>
       </c>
       <c r="B59" t="n">
@@ -1207,7 +1207,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>t-878107705168334848</t>
+          <t>t-875896081233567744</t>
         </is>
       </c>
       <c r="B60" t="n">
@@ -1220,7 +1220,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>t-878263651773407233</t>
+          <t>t-762401879758372864</t>
         </is>
       </c>
       <c r="B61" t="n">
@@ -1233,46 +1233,46 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>t-878265674975461376</t>
+          <t>t-762402279601344512</t>
         </is>
       </c>
       <c r="B62" t="n">
         <v>1</v>
       </c>
       <c r="C62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>t-878542338414362624</t>
+          <t>t-762404827229892608</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>t-880275227367821312</t>
+          <t>t-922536592429993985</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>t-887086137789091841</t>
+          <t>t-1012224879310057472</t>
         </is>
       </c>
       <c r="B65" t="n">
@@ -1285,7 +1285,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>t-900539002423562240</t>
+          <t>t-503508088964800513</t>
         </is>
       </c>
       <c r="B66" t="n">
@@ -1298,11 +1298,11 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>t-900561270843334662</t>
+          <t>t-503608708635844608</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C67" t="n">
         <v>1</v>
@@ -1311,20 +1311,20 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>t-900690069668933632</t>
+          <t>t-517568253363634176</t>
         </is>
       </c>
       <c r="B68" t="n">
         <v>1</v>
       </c>
       <c r="C68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>t-918248158253273089</t>
+          <t>t-518546395729379328</t>
         </is>
       </c>
       <c r="B69" t="n">
@@ -1337,7 +1337,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>t-937797554313551873</t>
+          <t>t-519264703466315776</t>
         </is>
       </c>
       <c r="B70" t="n">
@@ -1350,7 +1350,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>t-937878737382772737</t>
+          <t>t-594694315915350017</t>
         </is>
       </c>
       <c r="B71" t="n">
@@ -1363,7 +1363,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>t-938887720075702272</t>
+          <t>t-770981711182237696</t>
         </is>
       </c>
       <c r="B72" t="n">
@@ -1376,24 +1376,24 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>t-985145363618246656</t>
+          <t>t-801687875939078144</t>
         </is>
       </c>
       <c r="B73" t="n">
         <v>0</v>
       </c>
       <c r="C73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>t-985306564868354049</t>
+          <t>t-893144326049419264</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C74" t="n">
         <v>1</v>
@@ -1402,7 +1402,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>t-1022084644039258112</t>
+          <t>t-924921911510949890</t>
         </is>
       </c>
       <c r="B75" t="n">
@@ -1415,20 +1415,20 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>t-1024388985282383872</t>
+          <t>t-924939317381758976</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>t-1054831014869123073</t>
+          <t>t-925210606361300992</t>
         </is>
       </c>
       <c r="B77" t="n">
@@ -1441,20 +1441,20 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>t-1054887299698380800</t>
+          <t>t-925257914817892352</t>
         </is>
       </c>
       <c r="B78" t="n">
         <v>1</v>
       </c>
       <c r="C78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>t-1055927061867585536</t>
+          <t>t-1049900608294137856</t>
         </is>
       </c>
       <c r="B79" t="n">
@@ -1467,24 +1467,24 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>t-499691919128018944</t>
+          <t>t-1061557072670670850</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>t-513019810272137216</t>
+          <t>t-1061559942140780544</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C81" t="n">
         <v>0</v>
@@ -1493,11 +1493,11 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>t-832760057259384834</t>
+          <t>t-506695122298212352</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C82" t="n">
         <v>0</v>
@@ -1506,20 +1506,20 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>t-832777578633064449</t>
+          <t>t-745595825670131714</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>t-754609055683915776</t>
+          <t>t-745600923448258560</t>
         </is>
       </c>
       <c r="B84" t="n">
@@ -1532,33 +1532,33 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>t-762401879758372864</t>
+          <t>t-676063553162379265</t>
         </is>
       </c>
       <c r="B85" t="n">
         <v>0</v>
       </c>
       <c r="C85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>t-762402279601344512</t>
+          <t>t-767098705790906368</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>t-762404827229892608</t>
+          <t>t-908760840886767616</t>
         </is>
       </c>
       <c r="B87" t="n">
@@ -1571,7 +1571,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>t-925753092301295616</t>
+          <t>t-751267650043387906</t>
         </is>
       </c>
       <c r="B88" t="n">
@@ -1584,7 +1584,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>t-1028077400779841537</t>
+          <t>t-513123960192794624</t>
         </is>
       </c>
       <c r="B89" t="n">
@@ -1597,24 +1597,24 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>t-533166195508117505</t>
+          <t>t-670312803173986304</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>t-582884078073987072</t>
+          <t>t-840253641885913088</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C91" t="n">
         <v>0</v>
@@ -1623,7 +1623,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>t-582893069168611328</t>
+          <t>t-878362748232622081</t>
         </is>
       </c>
       <c r="B92" t="n">
@@ -1636,7 +1636,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>t-739238212518957060</t>
+          <t>t-966707160049766400</t>
         </is>
       </c>
       <c r="B93" t="n">
@@ -1649,7 +1649,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>t-739379635675271168</t>
+          <t>t-967596306297483265</t>
         </is>
       </c>
       <c r="B94" t="n">
@@ -1662,37 +1662,37 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>t-893144326049419264</t>
+          <t>t-967763105525764097</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>t-989808164907319296</t>
+          <t>t-967806729865060352</t>
         </is>
       </c>
       <c r="B96" t="n">
         <v>1</v>
       </c>
       <c r="C96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>t-992796128654524417</t>
+          <t>t-967827685333454849</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C97" t="n">
         <v>0</v>
@@ -1701,11 +1701,11 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>t-745595825670131714</t>
+          <t>t-968065709459750912</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C98" t="n">
         <v>0</v>
@@ -1714,7 +1714,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>t-745600923448258560</t>
+          <t>t-968790557077262336</t>
         </is>
       </c>
       <c r="B99" t="n">
@@ -1727,7 +1727,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>t-847556586600095745</t>
+          <t>t-681802042885697536</t>
         </is>
       </c>
       <c r="B100" t="n">
@@ -1740,46 +1740,46 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>t-858084101320056832</t>
+          <t>t-682128192019234816</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>t-858490544007327747</t>
+          <t>t-682147581405859841</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>t-903265153931608064</t>
+          <t>t-682223092198936576</t>
         </is>
       </c>
       <c r="B103" t="n">
         <v>0</v>
       </c>
       <c r="C103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>t-611838090278121474</t>
+          <t>t-682287065824931840</t>
         </is>
       </c>
       <c r="B104" t="n">
@@ -1792,7 +1792,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>t-612267884463673344</t>
+          <t>t-682459381347254272</t>
         </is>
       </c>
       <c r="B105" t="n">
@@ -1805,11 +1805,11 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>t-612280320520425472</t>
+          <t>t-682632199527641089</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C106" t="n">
         <v>0</v>
@@ -1818,7 +1818,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>t-639446444949180417</t>
+          <t>t-682755737790099456</t>
         </is>
       </c>
       <c r="B107" t="n">
@@ -1831,11 +1831,11 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>t-752623570010812416</t>
+          <t>t-682908634020470785</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C108" t="n">
         <v>0</v>
@@ -1844,11 +1844,11 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>t-752689111933214722</t>
+          <t>t-682915879026339840</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C109" t="n">
         <v>0</v>
@@ -1857,24 +1857,24 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>t-752696262009450496</t>
+          <t>t-683017640638582784</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>t-752724839081791488</t>
+          <t>t-683036658942513152</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C111" t="n">
         <v>0</v>
@@ -1883,7 +1883,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>t-903082857492566018</t>
+          <t>t-683077568287866880</t>
         </is>
       </c>
       <c r="B112" t="n">
@@ -1896,37 +1896,37 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>t-1016140956322713601</t>
+          <t>t-683235960692314112</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>t-1050075728891535361</t>
+          <t>t-683258563628777472</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>t-1050076017593745408</t>
+          <t>t-683386799184543745</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C115" t="n">
         <v>0</v>
@@ -1935,33 +1935,33 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>t-1050077658590134272</t>
+          <t>t-683399457254326272</t>
         </is>
       </c>
       <c r="B116" t="n">
         <v>1</v>
       </c>
       <c r="C116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>t-1050092626786037760</t>
+          <t>t-683602691965206528</t>
         </is>
       </c>
       <c r="B117" t="n">
         <v>1</v>
       </c>
       <c r="C117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>t-1050210928594173952</t>
+          <t>t-683628764622905344</t>
         </is>
       </c>
       <c r="B118" t="n">
@@ -1974,20 +1974,20 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>t-1050446607055896576</t>
+          <t>t-683644184683753472</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>t-1051200746312663040</t>
+          <t>t-683649428587155456</t>
         </is>
       </c>
       <c r="B120" t="n">
@@ -2000,7 +2000,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>t-764358428777078784</t>
+          <t>t-683773064040050688</t>
         </is>
       </c>
       <c r="B121" t="n">
@@ -2013,7 +2013,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>t-1027386544536150016</t>
+          <t>t-683968472968228864</t>
         </is>
       </c>
       <c r="B122" t="n">
@@ -2026,11 +2026,11 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>t-519554920140124160</t>
+          <t>t-683979793273065473</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C123" t="n">
         <v>0</v>
@@ -2039,11 +2039,11 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>t-641288611472654336</t>
+          <t>t-684007082555748352</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C124" t="n">
         <v>0</v>
@@ -2052,11 +2052,11 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>t-858145943971037184</t>
+          <t>t-684323489562558465</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C125" t="n">
         <v>0</v>
@@ -2065,7 +2065,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>t-858516314167627776</t>
+          <t>t-685408547975331840</t>
         </is>
       </c>
       <c r="B126" t="n">
@@ -2078,7 +2078,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>t-1005217349610426371</t>
+          <t>t-921072406919352320</t>
         </is>
       </c>
       <c r="B127" t="n">
@@ -2091,7 +2091,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>t-524878421172953088</t>
+          <t>t-921102349552275456</t>
         </is>
       </c>
       <c r="B128" t="n">
@@ -2104,20 +2104,20 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>t-973959709605662721</t>
+          <t>t-921122924505026560</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>t-973962375287246848</t>
+          <t>t-921266455856939008</t>
         </is>
       </c>
       <c r="B130" t="n">
@@ -2130,11 +2130,11 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>t-973995114065465345</t>
+          <t>t-921341244332113926</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C131" t="n">
         <v>0</v>
@@ -2143,24 +2143,24 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>t-974310620169474048</t>
+          <t>t-921699631360176128</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>t-568441199297761281</t>
+          <t>t-986841970411823104</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C133" t="n">
         <v>0</v>
@@ -2169,37 +2169,37 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>t-568878359158984704</t>
+          <t>t-1047112720837951488</t>
         </is>
       </c>
       <c r="B134" t="n">
         <v>0</v>
       </c>
       <c r="C134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>t-687545498014760960</t>
+          <t>t-1047367778901090304</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>t-955387095228567552</t>
+          <t>t-540871484869472256</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C136" t="n">
         <v>0</v>
@@ -2208,7 +2208,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>t-1042485319055155201</t>
+          <t>t-673151835868430336</t>
         </is>
       </c>
       <c r="B137" t="n">
@@ -2221,7 +2221,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>t-1047112720837951488</t>
+          <t>t-673156978059968512</t>
         </is>
       </c>
       <c r="B138" t="n">
@@ -2234,20 +2234,20 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>t-1047367778901090304</t>
+          <t>t-673168234577838080</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>t-673151835868430336</t>
+          <t>t-918095751158300672</t>
         </is>
       </c>
       <c r="B140" t="n">
@@ -2260,7 +2260,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>t-673156978059968512</t>
+          <t>t-918096410427486208</t>
         </is>
       </c>
       <c r="B141" t="n">
@@ -2273,20 +2273,20 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>t-673168234577838080</t>
+          <t>t-918845060900380672</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>t-918095751158300672</t>
+          <t>t-1020278662699134976</t>
         </is>
       </c>
       <c r="B143" t="n">
@@ -2299,24 +2299,24 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>t-918096410427486208</t>
+          <t>t-833840054363619329</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>t-918845060900380672</t>
+          <t>t-547131830642569216</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C145" t="n">
         <v>0</v>
@@ -2325,7 +2325,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>t-833840054363619329</t>
+          <t>t-560163999057448960</t>
         </is>
       </c>
       <c r="B146" t="n">
@@ -2338,7 +2338,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>t-862822528103759872</t>
+          <t>t-758769139905204224</t>
         </is>
       </c>
       <c r="B147" t="n">
@@ -2351,20 +2351,20 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>t-936531630868529152</t>
+          <t>t-1044757925414273025</t>
         </is>
       </c>
       <c r="B148" t="n">
         <v>1</v>
       </c>
       <c r="C148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>t-841795901764993024</t>
+          <t>t-1044770473932816384</t>
         </is>
       </c>
       <c r="B149" t="n">
@@ -2377,7 +2377,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>t-841877177624850434</t>
+          <t>t-560903834407817217</t>
         </is>
       </c>
       <c r="B150" t="n">
@@ -2390,7 +2390,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>t-843361396750409728</t>
+          <t>t-657221044642684928</t>
         </is>
       </c>
       <c r="B151" t="n">
@@ -2403,33 +2403,33 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>t-625832003070509056</t>
+          <t>t-902218968345272321</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>t-626848405877301248</t>
+          <t>t-578289267857891328</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>t-863530798334476291</t>
+          <t>t-598299676807340033</t>
         </is>
       </c>
       <c r="B154" t="n">
@@ -2442,11 +2442,11 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>t-912821640328773633</t>
+          <t>t-612099863975583744</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C155" t="n">
         <v>0</v>
@@ -2455,37 +2455,37 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>t-987722164903251968</t>
+          <t>t-612781430335082496</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>t-575206069833629696</t>
+          <t>t-612783809587580928</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C157" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>t-604735735154012160</t>
+          <t>t-698546841881853953</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C158" t="n">
         <v>0</v>
@@ -2494,11 +2494,11 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>t-707957967094685696</t>
+          <t>t-870660332800397312</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C159" t="n">
         <v>1</v>
@@ -2507,46 +2507,46 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>t-720931143055491072</t>
+          <t>t-870684149173977089</t>
         </is>
       </c>
       <c r="B160" t="n">
         <v>1</v>
       </c>
       <c r="C160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>t-737748026983354372</t>
+          <t>t-878162982953402368</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>t-737752255571595264</t>
+          <t>t-917499339278254080</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>t-901151504714870784</t>
+          <t>t-987005505154535425</t>
         </is>
       </c>
       <c r="B163" t="n">
@@ -2559,33 +2559,33 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>t-594613009575579649</t>
+          <t>t-624561158788247552</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C164" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>t-766291748704423936</t>
+          <t>t-913204200187863040</t>
         </is>
       </c>
       <c r="B165" t="n">
         <v>0</v>
       </c>
       <c r="C165" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>t-791266893470568448</t>
+          <t>t-992484226795823105</t>
         </is>
       </c>
       <c r="B166" t="n">
@@ -2598,11 +2598,11 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>t-791268686447378433</t>
+          <t>t-1043269235474984960</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C167" t="n">
         <v>0</v>
@@ -2611,11 +2611,11 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>t-849724022598139904</t>
+          <t>t-649543845269667840</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C168" t="n">
         <v>0</v>
@@ -2624,33 +2624,33 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>t-904717770524372993</t>
+          <t>t-903173716451909632</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C169" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>t-906974272832376832</t>
+          <t>t-694715871097278464</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C170" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>t-828748393916809216</t>
+          <t>t-858172777098072064</t>
         </is>
       </c>
       <c r="B171" t="n">
@@ -2663,37 +2663,37 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>t-829760036348035072</t>
+          <t>t-858203574500818944</t>
         </is>
       </c>
       <c r="B172" t="n">
         <v>0</v>
       </c>
       <c r="C172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>t-700818903744778240</t>
+          <t>t-858267644507631616</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C173" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>t-865899138726100992</t>
+          <t>t-858374877706932224</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C174" t="n">
         <v>1</v>
@@ -2702,11 +2702,11 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>t-988107827615952898</t>
+          <t>t-858419995453292545</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C175" t="n">
         <v>0</v>
@@ -2715,7 +2715,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>t-994221853211267073</t>
+          <t>t-734825704412446721</t>
         </is>
       </c>
       <c r="B176" t="n">
@@ -2728,7 +2728,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>t-753685864471863300</t>
+          <t>t-734826990281187328</t>
         </is>
       </c>
       <c r="B177" t="n">
@@ -2741,7 +2741,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>t-861649200160710656</t>
+          <t>t-875514382276538369</t>
         </is>
       </c>
       <c r="B178" t="n">
@@ -2754,7 +2754,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>t-883080365442838528</t>
+          <t>t-899745107900940288</t>
         </is>
       </c>
       <c r="B179" t="n">
@@ -2767,37 +2767,37 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>t-883215183442739200</t>
+          <t>t-899747204986019844</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>t-733452580194410497</t>
+          <t>t-743015826601697281</t>
         </is>
       </c>
       <c r="B181" t="n">
         <v>1</v>
       </c>
       <c r="C181" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>t-876214781744750592</t>
+          <t>t-946987966475448325</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C182" t="n">
         <v>0</v>
@@ -2806,20 +2806,20 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>t-829201577370075136</t>
+          <t>t-780856348493832192</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C183" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>t-829349939947925504</t>
+          <t>t-977485288892059648</t>
         </is>
       </c>
       <c r="B184" t="n">
@@ -2832,33 +2832,33 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>t-829364075721326592</t>
+          <t>t-889517070559334400</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C185" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>t-829412936661815299</t>
+          <t>t-1039228208804233216</t>
         </is>
       </c>
       <c r="B186" t="n">
         <v>0</v>
       </c>
       <c r="C186" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>t-1050435927066198018</t>
+          <t>t-1054403005032947712</t>
         </is>
       </c>
       <c r="B187" t="n">
@@ -2871,7 +2871,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>t-1025638750783778816</t>
+          <t>t-898119475089686528</t>
         </is>
       </c>
       <c r="B188" t="n">
@@ -2884,7 +2884,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>t-910451192064614401</t>
+          <t>t-898375447507030017</t>
         </is>
       </c>
       <c r="B189" t="n">
@@ -2897,7 +2897,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>t-911670405483651072</t>
+          <t>t-898397795245215744</t>
         </is>
       </c>
       <c r="B190" t="n">
@@ -2910,46 +2910,46 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>t-640924573647503360</t>
+          <t>t-863311681820258304</t>
         </is>
       </c>
       <c r="B191" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C191" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>t-641489320088436736</t>
+          <t>t-997483790145589248</t>
         </is>
       </c>
       <c r="B192" t="n">
         <v>1</v>
       </c>
       <c r="C192" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>t-652481072199036928</t>
+          <t>t-997521947297710081</t>
         </is>
       </c>
       <c r="B193" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C193" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>t-726041703153545216</t>
+          <t>t-536338799517634560</t>
         </is>
       </c>
       <c r="B194" t="n">
@@ -2962,20 +2962,20 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>t-726754497737826305</t>
+          <t>t-682987194840150016</t>
         </is>
       </c>
       <c r="B195" t="n">
         <v>0</v>
       </c>
       <c r="C195" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>t-737800453916897280</t>
+          <t>t-721832870604640260</t>
         </is>
       </c>
       <c r="B196" t="n">
@@ -2988,11 +2988,11 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>t-745382805253677057</t>
+          <t>t-721856912548044800</t>
         </is>
       </c>
       <c r="B197" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C197" t="n">
         <v>1</v>
@@ -3001,20 +3001,20 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>t-752596726066843648</t>
+          <t>t-722873292755828736</t>
         </is>
       </c>
       <c r="B198" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C198" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>t-753413745230094338</t>
+          <t>t-737800453916897280</t>
         </is>
       </c>
       <c r="B199" t="n">
@@ -3027,24 +3027,24 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>t-785997107094093825</t>
+          <t>t-905607663798636547</t>
         </is>
       </c>
       <c r="B200" t="n">
         <v>0</v>
       </c>
       <c r="C200" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>t-817334752848056320</t>
+          <t>t-906292765633515520</t>
         </is>
       </c>
       <c r="B201" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C201" t="n">
         <v>0</v>
@@ -3053,24 +3053,24 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>t-817481338974507010</t>
+          <t>t-906696780133388288</t>
         </is>
       </c>
       <c r="B202" t="n">
         <v>1</v>
       </c>
       <c r="C202" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>t-858067034772566016</t>
+          <t>t-907946100618907648</t>
         </is>
       </c>
       <c r="B203" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C203" t="n">
         <v>1</v>
@@ -3079,20 +3079,20 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>t-858109132586483713</t>
+          <t>t-593171698846830592</t>
         </is>
       </c>
       <c r="B204" t="n">
         <v>0</v>
       </c>
       <c r="C204" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>t-898515685369946113</t>
+          <t>t-646027426347155456</t>
         </is>
       </c>
       <c r="B205" t="n">
@@ -3105,46 +3105,46 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>t-913139045009633280</t>
+          <t>t-750893641632063488</t>
         </is>
       </c>
       <c r="B206" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C206" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>t-913178067195088902</t>
+          <t>t-897457481550618624</t>
         </is>
       </c>
       <c r="B207" t="n">
         <v>1</v>
       </c>
       <c r="C207" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>t-913438297258708992</t>
+          <t>t-967489391517192192</t>
         </is>
       </c>
       <c r="B208" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C208" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>t-978842874749046784</t>
+          <t>t-1004794708802048002</t>
         </is>
       </c>
       <c r="B209" t="n">
@@ -3157,7 +3157,7 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>t-979067875213234176</t>
+          <t>t-1016850546236542983</t>
         </is>
       </c>
       <c r="B210" t="n">
@@ -3170,11 +3170,11 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>t-992252736560222210</t>
+          <t>t-1054153981998575616</t>
         </is>
       </c>
       <c r="B211" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C211" t="n">
         <v>1</v>
@@ -3183,24 +3183,24 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>t-1009549219240308737</t>
+          <t>t-683790340701073408</t>
         </is>
       </c>
       <c r="B212" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C212" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>t-1014570924681687042</t>
+          <t>t-903370281829498882</t>
         </is>
       </c>
       <c r="B213" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C213" t="n">
         <v>1</v>
@@ -3209,7 +3209,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>t-1016477854391992320</t>
+          <t>t-577773253898477568</t>
         </is>
       </c>
       <c r="B214" t="n">
@@ -3222,59 +3222,59 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>t-1028684190169149440</t>
+          <t>t-577808831918579712</t>
         </is>
       </c>
       <c r="B215" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C215" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>t-1028764502517592065</t>
+          <t>t-586160130313625600</t>
         </is>
       </c>
       <c r="B216" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C216" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>t-578194227852505088</t>
+          <t>t-594878604397432832</t>
         </is>
       </c>
       <c r="B217" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C217" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>t-626642400555892737</t>
+          <t>t-630004911024046080</t>
         </is>
       </c>
       <c r="B218" t="n">
         <v>1</v>
       </c>
       <c r="C218" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>t-626741309693394948</t>
+          <t>t-630051857654751232</t>
         </is>
       </c>
       <c r="B219" t="n">
@@ -3287,11 +3287,11 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>t-626870204199534598</t>
+          <t>t-630833400857919488</t>
         </is>
       </c>
       <c r="B220" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C220" t="n">
         <v>1</v>
@@ -3300,7 +3300,7 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>t-646027426347155456</t>
+          <t>t-638674545726066688</t>
         </is>
       </c>
       <c r="B221" t="n">
@@ -3313,85 +3313,85 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>t-763041051426775040</t>
+          <t>t-638724428944150528</t>
         </is>
       </c>
       <c r="B222" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C222" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>t-763066608868794368</t>
+          <t>t-639699321500364800</t>
         </is>
       </c>
       <c r="B223" t="n">
         <v>1</v>
       </c>
       <c r="C223" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>t-763135787424636928</t>
+          <t>t-639804238848237568</t>
         </is>
       </c>
       <c r="B224" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C224" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>t-885230061556813824</t>
+          <t>t-708952691926548480</t>
         </is>
       </c>
       <c r="B225" t="n">
         <v>0</v>
       </c>
       <c r="C225" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>t-885519574443020288</t>
+          <t>t-767994872578056192</t>
         </is>
       </c>
       <c r="B226" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C226" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>t-967489391517192192</t>
+          <t>t-775760180936048640</t>
         </is>
       </c>
       <c r="B227" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C227" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>t-1029525697382047746</t>
+          <t>t-775760740204552192</t>
         </is>
       </c>
       <c r="B228" t="n">
@@ -3404,33 +3404,33 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>t-1029541696839798791</t>
+          <t>t-775766510182731776</t>
         </is>
       </c>
       <c r="B229" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C229" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>t-1029769212384948225</t>
+          <t>t-775772257327128576</t>
         </is>
       </c>
       <c r="B230" t="n">
         <v>1</v>
       </c>
       <c r="C230" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>t-655463817921626112</t>
+          <t>t-775805122920189952</t>
         </is>
       </c>
       <c r="B231" t="n">
@@ -3443,7 +3443,7 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>t-796087988140834817</t>
+          <t>t-776165588917944320</t>
         </is>
       </c>
       <c r="B232" t="n">
@@ -3456,20 +3456,20 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>t-836289804664979457</t>
+          <t>t-783921439044841474</t>
         </is>
       </c>
       <c r="B233" t="n">
         <v>0</v>
       </c>
       <c r="C233" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>t-580289963599765504</t>
+          <t>t-784017385615265792</t>
         </is>
       </c>
       <c r="B234" t="n">
@@ -3482,27 +3482,27 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>t-586160130313625600</t>
+          <t>t-784336997477261312</t>
         </is>
       </c>
       <c r="B235" t="n">
         <v>0</v>
       </c>
       <c r="C235" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>t-681483416165048320</t>
+          <t>t-784835805999198208</t>
         </is>
       </c>
       <c r="B236" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C236" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="237">
@@ -3593,7 +3593,7 @@
         <v>1</v>
       </c>
       <c r="C243" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244">
@@ -3664,7 +3664,7 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>t-845940693256286208</t>
+          <t>t-919174352289005568</t>
         </is>
       </c>
       <c r="B249" t="n">
@@ -3677,7 +3677,7 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>t-968863674306834432</t>
+          <t>t-919528265718665216</t>
         </is>
       </c>
       <c r="B250" t="n">
@@ -3690,24 +3690,24 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>t-972048308909826048</t>
+          <t>t-957285309796044800</t>
         </is>
       </c>
       <c r="B251" t="n">
         <v>0</v>
       </c>
       <c r="C251" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>t-1039508390869786629</t>
+          <t>t-957305309328039936</t>
         </is>
       </c>
       <c r="B252" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C252" t="n">
         <v>1</v>
@@ -3716,7 +3716,7 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>t-1039553624345661440</t>
+          <t>t-957621820626276353</t>
         </is>
       </c>
       <c r="B253" t="n">
@@ -3729,20 +3729,20 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>t-1039619721644191744</t>
+          <t>t-958690487875055616</t>
         </is>
       </c>
       <c r="B254" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C254" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>t-1052331593933688832</t>
+          <t>t-968863674306834432</t>
         </is>
       </c>
       <c r="B255" t="n">
@@ -3755,20 +3755,20 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>t-1052814538419003392</t>
+          <t>t-986933673697120257</t>
         </is>
       </c>
       <c r="B256" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C256" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>t-1052930779947393024</t>
+          <t>t-538818433920827392</t>
         </is>
       </c>
       <c r="B257" t="n">
@@ -3781,33 +3781,33 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>t-1052972300667146241</t>
+          <t>t-1014627656082579457</t>
         </is>
       </c>
       <c r="B258" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C258" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>t-1053005694822207488</t>
+          <t>t-903255663417204736</t>
         </is>
       </c>
       <c r="B259" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C259" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>t-1053014697077817346</t>
+          <t>t-910953097316376576</t>
         </is>
       </c>
       <c r="B260" t="n">
@@ -3820,7 +3820,7 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>t-1053091674438725632</t>
+          <t>t-910955895714123776</t>
         </is>
       </c>
       <c r="B261" t="n">
@@ -3833,7 +3833,7 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>t-1053211878921568256</t>
+          <t>t-893162180492787716</t>
         </is>
       </c>
       <c r="B262" t="n">
@@ -3846,7 +3846,7 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>t-1053220103070932992</t>
+          <t>t-549835920762220544</t>
         </is>
       </c>
       <c r="B263" t="n">
@@ -3859,20 +3859,20 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>t-1053451825607774209</t>
+          <t>t-670921727346614272</t>
         </is>
       </c>
       <c r="B264" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C264" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>t-1053915265375834112</t>
+          <t>t-801380815166930945</t>
         </is>
       </c>
       <c r="B265" t="n">
@@ -3885,7 +3885,7 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>t-538818433920827392</t>
+          <t>t-821117207245713408</t>
         </is>
       </c>
       <c r="B266" t="n">
@@ -3898,7 +3898,7 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>t-549835920762220544</t>
+          <t>t-983975898042064896</t>
         </is>
       </c>
       <c r="B267" t="n">
@@ -3911,7 +3911,7 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>t-666910428551897088</t>
+          <t>t-984343410269151233</t>
         </is>
       </c>
       <c r="B268" t="n">
@@ -3924,7 +3924,7 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>t-983975898042064896</t>
+          <t>t-578199507671904256</t>
         </is>
       </c>
       <c r="B269" t="n">
@@ -3937,46 +3937,46 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>t-984343410269151233</t>
+          <t>t-578943021716250624</t>
         </is>
       </c>
       <c r="B270" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C270" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>t-755764875155083264</t>
+          <t>t-649689751415599105</t>
         </is>
       </c>
       <c r="B271" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C271" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>t-561177173151977473</t>
+          <t>t-803598066133573632</t>
         </is>
       </c>
       <c r="B272" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C272" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>t-561426613901209600</t>
+          <t>t-811342708061024256</t>
         </is>
       </c>
       <c r="B273" t="n">
@@ -3989,7 +3989,7 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>t-561478083538997248</t>
+          <t>t-561177173151977473</t>
         </is>
       </c>
       <c r="B274" t="n">
@@ -4002,46 +4002,46 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>t-561531868710207489</t>
+          <t>t-561426613901209600</t>
         </is>
       </c>
       <c r="B275" t="n">
         <v>1</v>
       </c>
       <c r="C275" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>t-561552888548560899</t>
+          <t>t-561478083538997248</t>
         </is>
       </c>
       <c r="B276" t="n">
         <v>1</v>
       </c>
       <c r="C276" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>t-561569968660439040</t>
+          <t>t-561531868710207489</t>
         </is>
       </c>
       <c r="B277" t="n">
         <v>1</v>
       </c>
       <c r="C277" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>t-561719764557774848</t>
+          <t>t-561552888548560899</t>
         </is>
       </c>
       <c r="B278" t="n">
@@ -4054,7 +4054,7 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>t-561830425656852480</t>
+          <t>t-561569968660439040</t>
         </is>
       </c>
       <c r="B279" t="n">
@@ -4067,20 +4067,20 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>t-562238606618939392</t>
+          <t>t-561719764557774848</t>
         </is>
       </c>
       <c r="B280" t="n">
         <v>1</v>
       </c>
       <c r="C280" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>t-562243257879773184</t>
+          <t>t-561830425656852480</t>
         </is>
       </c>
       <c r="B281" t="n">
@@ -4093,7 +4093,7 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>t-562251699403096064</t>
+          <t>t-562238606618939392</t>
         </is>
       </c>
       <c r="B282" t="n">
@@ -4106,20 +4106,20 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>t-562279318081269760</t>
+          <t>t-562243257879773184</t>
         </is>
       </c>
       <c r="B283" t="n">
         <v>1</v>
       </c>
       <c r="C283" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>t-562339945067847680</t>
+          <t>t-562251699403096064</t>
         </is>
       </c>
       <c r="B284" t="n">
@@ -4132,72 +4132,72 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>t-562639830182821889</t>
+          <t>t-562279318081269760</t>
         </is>
       </c>
       <c r="B285" t="n">
         <v>1</v>
       </c>
       <c r="C285" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>t-563230595221037057</t>
+          <t>t-562339945067847680</t>
         </is>
       </c>
       <c r="B286" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C286" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>t-563397372966076416</t>
+          <t>t-562639830182821889</t>
         </is>
       </c>
       <c r="B287" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C287" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>t-592720340289224705</t>
+          <t>t-563230595221037057</t>
         </is>
       </c>
       <c r="B288" t="n">
         <v>0</v>
       </c>
       <c r="C288" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>t-668121380727226368</t>
+          <t>t-563397372966076416</t>
         </is>
       </c>
       <c r="B289" t="n">
         <v>0</v>
       </c>
       <c r="C289" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>t-788874378666737664</t>
+          <t>t-570999709160116224</t>
         </is>
       </c>
       <c r="B290" t="n">
@@ -4210,24 +4210,24 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>t-1049061003617607680</t>
+          <t>t-571255966727053312</t>
         </is>
       </c>
       <c r="B291" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C291" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>t-1049351090909667329</t>
+          <t>t-592720340289224705</t>
         </is>
       </c>
       <c r="B292" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C292" t="n">
         <v>1</v>
@@ -4236,11 +4236,11 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>t-1050209065153036288</t>
+          <t>t-880769643060842496</t>
         </is>
       </c>
       <c r="B293" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C293" t="n">
         <v>1</v>
@@ -4249,7 +4249,7 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>t-578003881596215296</t>
+          <t>t-884449137407791104</t>
         </is>
       </c>
       <c r="B294" t="n">
@@ -4262,7 +4262,7 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>t-900702851202207746</t>
+          <t>t-885109132638003200</t>
         </is>
       </c>
       <c r="B295" t="n">
@@ -4275,33 +4275,33 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>t-924289234399322112</t>
+          <t>t-885140571232374784</t>
         </is>
       </c>
       <c r="B296" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C296" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>t-575443997050691585</t>
+          <t>t-885166687825350662</t>
         </is>
       </c>
       <c r="B297" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C297" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>t-603639937368469504</t>
+          <t>t-885188751936417793</t>
         </is>
       </c>
       <c r="B298" t="n">
@@ -4314,7 +4314,7 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>t-604106567907057664</t>
+          <t>t-981529575271337984</t>
         </is>
       </c>
       <c r="B299" t="n">
@@ -4327,76 +4327,76 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>t-605045307844337664</t>
+          <t>t-992126872036233224</t>
         </is>
       </c>
       <c r="B300" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C300" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>t-724222646435508224</t>
+          <t>t-993085432052273153</t>
         </is>
       </c>
       <c r="B301" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C301" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>t-774740590848188416</t>
+          <t>t-998345989382705152</t>
         </is>
       </c>
       <c r="B302" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C302" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>t-860258475883937792</t>
+          <t>t-817491496857255936</t>
         </is>
       </c>
       <c r="B303" t="n">
         <v>0</v>
       </c>
       <c r="C303" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>t-878774409280016384</t>
+          <t>t-651859489713291264</t>
         </is>
       </c>
       <c r="B304" t="n">
         <v>0</v>
       </c>
       <c r="C304" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>t-912188711261036544</t>
+          <t>t-652540388272553984</t>
         </is>
       </c>
       <c r="B305" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C305" t="n">
         <v>1</v>
@@ -4405,7 +4405,7 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>t-912397778260840448</t>
+          <t>t-652542102539235329</t>
         </is>
       </c>
       <c r="B306" t="n">
@@ -4418,11 +4418,11 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>t-912428211253972997</t>
+          <t>t-741029103147442176</t>
         </is>
       </c>
       <c r="B307" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C307" t="n">
         <v>1</v>
@@ -4431,11 +4431,11 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>t-1049725086469685248</t>
+          <t>t-1012441483654332417</t>
         </is>
       </c>
       <c r="B308" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C308" t="n">
         <v>1</v>
@@ -4444,24 +4444,24 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>t-610843183715463168</t>
+          <t>t-572808490965733378</t>
         </is>
       </c>
       <c r="B309" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C309" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>t-643571264011898881</t>
+          <t>t-686862688752807937</t>
         </is>
       </c>
       <c r="B310" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C310" t="n">
         <v>1</v>
@@ -4470,20 +4470,20 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>t-1050079983765311488</t>
+          <t>t-763085869045653505</t>
         </is>
       </c>
       <c r="B311" t="n">
         <v>0</v>
       </c>
       <c r="C311" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>t-648598850530226176</t>
+          <t>t-763088808799797248</t>
         </is>
       </c>
       <c r="B312" t="n">
@@ -4496,20 +4496,20 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>t-677918822104473600</t>
+          <t>t-771375628176072704</t>
         </is>
       </c>
       <c r="B313" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C313" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>t-765678719205724160</t>
+          <t>t-839501967894405121</t>
         </is>
       </c>
       <c r="B314" t="n">
@@ -4522,7 +4522,7 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>t-895489338364055553</t>
+          <t>t-839604530048299008</t>
         </is>
       </c>
       <c r="B315" t="n">
@@ -4535,33 +4535,33 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>t-981921278876684288</t>
+          <t>t-887004122628710405</t>
         </is>
       </c>
       <c r="B316" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C316" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>t-876856640372387842</t>
+          <t>t-887017424306008065</t>
         </is>
       </c>
       <c r="B317" t="n">
         <v>0</v>
       </c>
       <c r="C317" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>t-659172274482733056</t>
+          <t>t-1027967787312939008</t>
         </is>
       </c>
       <c r="B318" t="n">
@@ -4574,11 +4574,11 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>t-659184469690175488</t>
+          <t>t-575443997050691585</t>
         </is>
       </c>
       <c r="B319" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C319" t="n">
         <v>1</v>
@@ -4587,37 +4587,37 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>t-668278058953084928</t>
+          <t>t-874804635327905792</t>
         </is>
       </c>
       <c r="B320" t="n">
         <v>1</v>
       </c>
       <c r="C320" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>t-922944953696899072</t>
+          <t>t-1002347419114311681</t>
         </is>
       </c>
       <c r="B321" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C321" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>t-922950403255341056</t>
+          <t>t-1042391419745435648</t>
         </is>
       </c>
       <c r="B322" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C322" t="n">
         <v>0</v>
@@ -4626,7 +4626,7 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>t-922959565792083968</t>
+          <t>t-599007393494605824</t>
         </is>
       </c>
       <c r="B323" t="n">
@@ -4639,37 +4639,37 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>t-794366500865982467</t>
+          <t>t-599125027116568576</t>
         </is>
       </c>
       <c r="B324" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C324" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>t-842138233173626880</t>
+          <t>t-601584910428729344</t>
         </is>
       </c>
       <c r="B325" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C325" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>t-842141623454687232</t>
+          <t>t-669944728155090944</t>
         </is>
       </c>
       <c r="B326" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C326" t="n">
         <v>1</v>
@@ -4678,20 +4678,20 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>t-842494366820286465</t>
+          <t>t-774740590848188416</t>
         </is>
       </c>
       <c r="B327" t="n">
         <v>1</v>
       </c>
       <c r="C327" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>t-846003285282697216</t>
+          <t>t-975332165528576000</t>
         </is>
       </c>
       <c r="B328" t="n">
@@ -4704,37 +4704,37 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>t-954775347962241025</t>
+          <t>t-1028993321757077505</t>
         </is>
       </c>
       <c r="B329" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C329" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>t-954792612103442432</t>
+          <t>t-610843183715463168</t>
         </is>
       </c>
       <c r="B330" t="n">
         <v>0</v>
       </c>
       <c r="C330" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>t-954866409300987904</t>
+          <t>t-631280418583658496</t>
         </is>
       </c>
       <c r="B331" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C331" t="n">
         <v>1</v>
@@ -4743,7 +4743,7 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>t-859881873865973760</t>
+          <t>t-1039755728448352257</t>
         </is>
       </c>
       <c r="B332" t="n">
@@ -4756,7 +4756,7 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>t-859891336627048448</t>
+          <t>t-1039888860501688320</t>
         </is>
       </c>
       <c r="B333" t="n">
@@ -4769,11 +4769,11 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>t-859891655167664129</t>
+          <t>t-648598850530226176</t>
         </is>
       </c>
       <c r="B334" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C334" t="n">
         <v>0</v>
@@ -4782,20 +4782,20 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>t-734458703231885312</t>
+          <t>t-904587230177443840</t>
         </is>
       </c>
       <c r="B335" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C335" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>t-1016527492478328832</t>
+          <t>t-905072243822264320</t>
         </is>
       </c>
       <c r="B336" t="n">
@@ -4808,11 +4808,11 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>t-880159202567753728</t>
+          <t>t-905081971667296257</t>
         </is>
       </c>
       <c r="B337" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C337" t="n">
         <v>1</v>
@@ -4821,24 +4821,24 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>t-843607928133292033</t>
+          <t>t-905280030833614849</t>
         </is>
       </c>
       <c r="B338" t="n">
         <v>1</v>
       </c>
       <c r="C338" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>t-946020250805514240</t>
+          <t>t-919294420465229824</t>
         </is>
       </c>
       <c r="B339" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C339" t="n">
         <v>1</v>
@@ -4847,50 +4847,50 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>t-971386931857772544</t>
+          <t>t-1027575306226475008</t>
         </is>
       </c>
       <c r="B340" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C340" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>t-1016293496980955136</t>
+          <t>t-736702899519004674</t>
         </is>
       </c>
       <c r="B341" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C341" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>t-998557475266859013</t>
+          <t>t-668278058953084928</t>
         </is>
       </c>
       <c r="B342" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C342" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>t-999117713749495808</t>
+          <t>t-954775347962241025</t>
         </is>
       </c>
       <c r="B343" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C343" t="n">
         <v>1</v>
@@ -4899,33 +4899,33 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>t-922899400032178176</t>
+          <t>t-954792612103442432</t>
         </is>
       </c>
       <c r="B344" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C344" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>t-922934157185110016</t>
+          <t>t-954866409300987904</t>
         </is>
       </c>
       <c r="B345" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C345" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>t-925465361557975040</t>
+          <t>t-910172109506273280</t>
         </is>
       </c>
       <c r="B346" t="n">
@@ -4938,7 +4938,7 @@
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>t-785262083638169600</t>
+          <t>t-829844333205413888</t>
         </is>
       </c>
       <c r="B347" t="n">
@@ -4951,20 +4951,20 @@
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>t-796435007673946112</t>
+          <t>t-1011820273774006272</t>
         </is>
       </c>
       <c r="B348" t="n">
         <v>1</v>
       </c>
       <c r="C348" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>t-796529318373584896</t>
+          <t>t-1012308763422937089</t>
         </is>
       </c>
       <c r="B349" t="n">
@@ -4977,20 +4977,20 @@
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>t-796701113995104256</t>
+          <t>t-753754552936136704</t>
         </is>
       </c>
       <c r="B350" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C350" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>t-796745584795389952</t>
+          <t>t-756636337130774528</t>
         </is>
       </c>
       <c r="B351" t="n">
@@ -5003,7 +5003,7 @@
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>t-797647100565716992</t>
+          <t>t-843607928133292033</t>
         </is>
       </c>
       <c r="B352" t="n">
@@ -5016,7 +5016,7 @@
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>t-797655572573143040</t>
+          <t>t-946020250805514240</t>
         </is>
       </c>
       <c r="B353" t="n">
@@ -5029,7 +5029,7 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>t-797814805772046336</t>
+          <t>t-1016293496980955136</t>
         </is>
       </c>
       <c r="B354" t="n">
@@ -5042,20 +5042,20 @@
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>t-812266777711431682</t>
+          <t>t-922899400032178176</t>
         </is>
       </c>
       <c r="B355" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C355" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>t-1049947970664304640</t>
+          <t>t-922934157185110016</t>
         </is>
       </c>
       <c r="B356" t="n">
@@ -5068,7 +5068,7 @@
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>t-814665332673703936</t>
+          <t>t-788788619779665920</t>
         </is>
       </c>
       <c r="B357" t="n">
@@ -5081,7 +5081,7 @@
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>t-814669018061803521</t>
+          <t>t-797647100565716992</t>
         </is>
       </c>
       <c r="B358" t="n">
@@ -5094,7 +5094,7 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>t-850470638624133120</t>
+          <t>t-797655572573143040</t>
         </is>
       </c>
       <c r="B359" t="n">
@@ -5107,59 +5107,59 @@
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>t-885945201105219584</t>
+          <t>t-797814805772046336</t>
         </is>
       </c>
       <c r="B360" t="n">
         <v>1</v>
       </c>
       <c r="C360" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>t-885947457330438145</t>
+          <t>t-814469186323939328</t>
         </is>
       </c>
       <c r="B361" t="n">
         <v>0</v>
       </c>
       <c r="C361" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>t-860847907427233792</t>
+          <t>t-850470638624133120</t>
         </is>
       </c>
       <c r="B362" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C362" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>t-880971995671875586</t>
+          <t>t-841401006797815808</t>
         </is>
       </c>
       <c r="B363" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C363" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>t-1052284815779622917</t>
+          <t>t-849301263959420929</t>
         </is>
       </c>
       <c r="B364" t="n">
@@ -5172,27 +5172,27 @@
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>t-1052565742183272454</t>
+          <t>t-1034597062573211651</t>
         </is>
       </c>
       <c r="B365" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C365" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>t-1052712831517450241</t>
+          <t>t-894457279076020224</t>
         </is>
       </c>
       <c r="B366" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C366" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="367">
@@ -5205,17 +5205,17 @@
         <v>0</v>
       </c>
       <c r="C367" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>t-1041752836835614720</t>
+          <t>t-1034792477096652801</t>
         </is>
       </c>
       <c r="B368" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C368" t="n">
         <v>1</v>
@@ -5244,7 +5244,7 @@
         <v>0</v>
       </c>
       <c r="C370" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="371">
@@ -5263,7 +5263,7 @@
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>t-527207598521843712</t>
+          <t>t-616316575658807296</t>
         </is>
       </c>
       <c r="B372" t="n">
@@ -5276,20 +5276,20 @@
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>t-527210275955818496</t>
+          <t>t-702986489890775040</t>
         </is>
       </c>
       <c r="B373" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C373" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>t-527591945795690496</t>
+          <t>t-703410728628305920</t>
         </is>
       </c>
       <c r="B374" t="n">
@@ -5302,7 +5302,7 @@
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>t-621860106481762304</t>
+          <t>t-965605976698126341</t>
         </is>
       </c>
       <c r="B375" t="n">
@@ -5315,7 +5315,7 @@
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>t-850388688303529986</t>
+          <t>t-1040961500553388033</t>
         </is>
       </c>
       <c r="B376" t="n">
@@ -5328,11 +5328,11 @@
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>t-850540226590253057</t>
+          <t>t-520694218625675264</t>
         </is>
       </c>
       <c r="B377" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C377" t="n">
         <v>0</v>
@@ -5341,24 +5341,24 @@
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>t-912723744195596289</t>
+          <t>t-1027253242261069824</t>
         </is>
       </c>
       <c r="B378" t="n">
         <v>0</v>
       </c>
       <c r="C378" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>t-513212132176175105</t>
+          <t>t-1048603963069779968</t>
         </is>
       </c>
       <c r="B379" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C379" t="n">
         <v>0</v>
@@ -5367,37 +5367,37 @@
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>t-650288114116730880</t>
+          <t>t-804010972331524096</t>
         </is>
       </c>
       <c r="B380" t="n">
         <v>0</v>
       </c>
       <c r="C380" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>t-661802861446209536</t>
+          <t>t-819436418263031808</t>
         </is>
       </c>
       <c r="B381" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C381" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>t-819436418263031808</t>
+          <t>t-984081755006259201</t>
         </is>
       </c>
       <c r="B382" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C382" t="n">
         <v>1</v>
@@ -5406,7 +5406,7 @@
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>t-824672856466423809</t>
+          <t>t-750337554457694208</t>
         </is>
       </c>
       <c r="B383" t="n">
@@ -5419,11 +5419,11 @@
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>t-927168021512126464</t>
+          <t>t-722253771867181056</t>
         </is>
       </c>
       <c r="B384" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C384" t="n">
         <v>0</v>
@@ -5432,7 +5432,7 @@
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>t-1006187748338864128</t>
+          <t>t-722818069320470529</t>
         </is>
       </c>
       <c r="B385" t="n">
@@ -5445,7 +5445,7 @@
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>t-1006198330727247872</t>
+          <t>t-722837910135832577</t>
         </is>
       </c>
       <c r="B386" t="n">
@@ -5458,7 +5458,7 @@
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>t-1006207380676280320</t>
+          <t>t-722884869374619648</t>
         </is>
       </c>
       <c r="B387" t="n">
@@ -5471,50 +5471,50 @@
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>t-1006582449827209216</t>
+          <t>t-723517423786299392</t>
         </is>
       </c>
       <c r="B388" t="n">
         <v>1</v>
       </c>
       <c r="C388" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>t-517992573227778048</t>
+          <t>t-586533262912315392</t>
         </is>
       </c>
       <c r="B389" t="n">
         <v>0</v>
       </c>
       <c r="C389" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>t-676836902981513216</t>
+          <t>t-642554131211755524</t>
         </is>
       </c>
       <c r="B390" t="n">
         <v>0</v>
       </c>
       <c r="C390" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>t-737657149174730753</t>
+          <t>t-832598430291730433</t>
         </is>
       </c>
       <c r="B391" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C391" t="n">
         <v>0</v>
@@ -5523,7 +5523,7 @@
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>t-737657922885423104</t>
+          <t>t-884450764084662272</t>
         </is>
       </c>
       <c r="B392" t="n">
@@ -5536,7 +5536,7 @@
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>t-738291666285694976</t>
+          <t>t-884455668140445696</t>
         </is>
       </c>
       <c r="B393" t="n">
@@ -5549,124 +5549,124 @@
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>t-1057306605287550976</t>
+          <t>t-884457897043927040</t>
         </is>
       </c>
       <c r="B394" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C394" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>t-1057548272053698560</t>
+          <t>t-884462539458977792</t>
         </is>
       </c>
       <c r="B395" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C395" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>t-589443945773535232</t>
+          <t>t-529740815221153793</t>
         </is>
       </c>
       <c r="B396" t="n">
         <v>0</v>
       </c>
       <c r="C396" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>t-523536371525623808</t>
+          <t>t-595202959648096256</t>
         </is>
       </c>
       <c r="B397" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C397" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>t-722253771867181056</t>
+          <t>t-957544710825967616</t>
         </is>
       </c>
       <c r="B398" t="n">
         <v>1</v>
       </c>
       <c r="C398" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>t-722818069320470529</t>
+          <t>t-534007858804056066</t>
         </is>
       </c>
       <c r="B399" t="n">
         <v>1</v>
       </c>
       <c r="C399" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>t-722837910135832577</t>
+          <t>t-540907891566575616</t>
         </is>
       </c>
       <c r="B400" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C400" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>t-722884869374619648</t>
+          <t>t-541174080833978368</t>
         </is>
       </c>
       <c r="B401" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C401" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>t-723517423786299392</t>
+          <t>t-577791187240787968</t>
         </is>
       </c>
       <c r="B402" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C402" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>t-586533262912315392</t>
+          <t>t-578574154607280128</t>
         </is>
       </c>
       <c r="B403" t="n">
@@ -5679,7 +5679,7 @@
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>t-738708820491259904</t>
+          <t>t-744549085244334080</t>
         </is>
       </c>
       <c r="B404" t="n">
@@ -5692,7 +5692,7 @@
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>t-738754856811417601</t>
+          <t>t-744630770116005888</t>
         </is>
       </c>
       <c r="B405" t="n">
@@ -5705,11 +5705,11 @@
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>t-738830571351224320</t>
+          <t>t-745023417267724289</t>
         </is>
       </c>
       <c r="B406" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C406" t="n">
         <v>0</v>
@@ -5718,7 +5718,7 @@
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>t-739181708906467329</t>
+          <t>t-745961763473080321</t>
         </is>
       </c>
       <c r="B407" t="n">
@@ -5731,24 +5731,24 @@
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>t-865447859285405696</t>
+          <t>t-746461142604668928</t>
         </is>
       </c>
       <c r="B408" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C408" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>t-865573879527428096</t>
+          <t>t-769394896344064001</t>
         </is>
       </c>
       <c r="B409" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C409" t="n">
         <v>1</v>
@@ -5757,7 +5757,7 @@
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>t-534007858804056066</t>
+          <t>t-884135398854635520</t>
         </is>
       </c>
       <c r="B410" t="n">
@@ -5770,7 +5770,7 @@
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>t-538674754086244353</t>
+          <t>t-884163532958441472</t>
         </is>
       </c>
       <c r="B411" t="n">
@@ -5783,33 +5783,33 @@
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>t-541965663666184192</t>
+          <t>t-884173621224239104</t>
         </is>
       </c>
       <c r="B412" t="n">
         <v>1</v>
       </c>
       <c r="C412" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>t-1051891605035241474</t>
+          <t>t-884176826679136256</t>
         </is>
       </c>
       <c r="B413" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C413" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>t-538959622858883072</t>
+          <t>t-884179431887167489</t>
         </is>
       </c>
       <c r="B414" t="n">
@@ -5822,33 +5822,33 @@
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>t-544508576757477376</t>
+          <t>t-884282035384320001</t>
         </is>
       </c>
       <c r="B415" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C415" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>t-544546124984762370</t>
+          <t>t-884290062598451200</t>
         </is>
       </c>
       <c r="B416" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C416" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>t-544574124832468992</t>
+          <t>t-884310032518664194</t>
         </is>
       </c>
       <c r="B417" t="n">
@@ -5861,7 +5861,7 @@
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>t-544578399596187648</t>
+          <t>t-884325033430200320</t>
         </is>
       </c>
       <c r="B418" t="n">
@@ -5874,37 +5874,37 @@
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>t-544615900180393984</t>
+          <t>t-914844848359985152</t>
         </is>
       </c>
       <c r="B419" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C419" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>t-544793457190268928</t>
+          <t>t-915131811310714880</t>
         </is>
       </c>
       <c r="B420" t="n">
         <v>0</v>
       </c>
       <c r="C420" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>t-544806009018265601</t>
+          <t>t-915495031691235329</t>
         </is>
       </c>
       <c r="B421" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C421" t="n">
         <v>1</v>
@@ -5913,46 +5913,46 @@
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>t-545012520793436160</t>
+          <t>t-915561177966505984</t>
         </is>
       </c>
       <c r="B422" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C422" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>t-545215683404267523</t>
+          <t>t-948989121611075584</t>
         </is>
       </c>
       <c r="B423" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C423" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>t-591871892283334656</t>
+          <t>t-962342450219094016</t>
         </is>
       </c>
       <c r="B424" t="n">
         <v>0</v>
       </c>
       <c r="C424" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>t-634983488203177984</t>
+          <t>t-962358038081523713</t>
         </is>
       </c>
       <c r="B425" t="n">
@@ -5965,33 +5965,33 @@
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>t-642582982285504512</t>
+          <t>t-962393573927870466</t>
         </is>
       </c>
       <c r="B426" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C426" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>t-653264904581984256</t>
+          <t>t-1038002421543391232</t>
         </is>
       </c>
       <c r="B427" t="n">
         <v>0</v>
       </c>
       <c r="C427" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>t-653992755027386368</t>
+          <t>t-1052528388341149696</t>
         </is>
       </c>
       <c r="B428" t="n">
@@ -6004,33 +6004,33 @@
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>t-694507587149111296</t>
+          <t>t-1057165607152562176</t>
         </is>
       </c>
       <c r="B429" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C429" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>t-762281733672820736</t>
+          <t>t-1060529365962948608</t>
         </is>
       </c>
       <c r="B430" t="n">
         <v>0</v>
       </c>
       <c r="C430" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>t-809171890690523137</t>
+          <t>t-580823195311276032</t>
         </is>
       </c>
       <c r="B431" t="n">
@@ -6043,20 +6043,20 @@
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>t-842006165705875457</t>
+          <t>t-649269312625209344</t>
         </is>
       </c>
       <c r="B432" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C432" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>t-894594064582094852</t>
+          <t>t-750337802257129474</t>
         </is>
       </c>
       <c r="B433" t="n">
@@ -6069,7 +6069,7 @@
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>t-925333063336321024</t>
+          <t>t-800633887386988544</t>
         </is>
       </c>
       <c r="B434" t="n">
@@ -6082,59 +6082,59 @@
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>t-948989121611075584</t>
+          <t>t-1014607937048850434</t>
         </is>
       </c>
       <c r="B435" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C435" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>t-950088164777123841</t>
+          <t>t-557320938375905282</t>
         </is>
       </c>
       <c r="B436" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C436" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>t-950818741209747456</t>
+          <t>t-623733200322449409</t>
         </is>
       </c>
       <c r="B437" t="n">
         <v>1</v>
       </c>
       <c r="C437" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>t-951169520584024064</t>
+          <t>t-823181666160144384</t>
         </is>
       </c>
       <c r="B438" t="n">
         <v>1</v>
       </c>
       <c r="C438" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>t-951600654866317313</t>
+          <t>t-958216984176427008</t>
         </is>
       </c>
       <c r="B439" t="n">
@@ -6147,24 +6147,24 @@
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>t-951687956045156352</t>
+          <t>t-1018785093295464448</t>
         </is>
       </c>
       <c r="B440" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C440" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>t-965524750264135680</t>
+          <t>t-801715561692626944</t>
         </is>
       </c>
       <c r="B441" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C441" t="n">
         <v>1</v>
@@ -6173,20 +6173,20 @@
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>t-966320851678318593</t>
+          <t>t-801720307002339328</t>
         </is>
       </c>
       <c r="B442" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C442" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>t-967380419707535360</t>
+          <t>t-567369806647951362</t>
         </is>
       </c>
       <c r="B443" t="n">
@@ -6199,50 +6199,50 @@
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>t-974595772317659137</t>
+          <t>t-567639888489500672</t>
         </is>
       </c>
       <c r="B444" t="n">
         <v>0</v>
       </c>
       <c r="C444" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>t-981811338774183936</t>
+          <t>t-570985250324656128</t>
         </is>
       </c>
       <c r="B445" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C445" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>t-982165823350423552</t>
+          <t>t-571078007407775744</t>
         </is>
       </c>
       <c r="B446" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C446" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>t-987423120817643520</t>
+          <t>t-571808211742814209</t>
         </is>
       </c>
       <c r="B447" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C447" t="n">
         <v>1</v>
@@ -6251,7 +6251,7 @@
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>t-993438566914101248</t>
+          <t>t-577532478912663552</t>
         </is>
       </c>
       <c r="B448" t="n">
@@ -6264,7 +6264,7 @@
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>t-1024937575906271233</t>
+          <t>t-580368693688999936</t>
         </is>
       </c>
       <c r="B449" t="n">
@@ -6277,7 +6277,7 @@
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>t-1038002421543391232</t>
+          <t>t-861227956118716416</t>
         </is>
       </c>
       <c r="B450" t="n">
@@ -6290,7 +6290,7 @@
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>t-1060529365962948608</t>
+          <t>t-865160167155003392</t>
         </is>
       </c>
       <c r="B451" t="n">
@@ -6303,11 +6303,11 @@
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>t-545381752093806593</t>
+          <t>t-970012076428193796</t>
         </is>
       </c>
       <c r="B452" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C452" t="n">
         <v>0</v>
@@ -6316,11 +6316,11 @@
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>t-652506002957422592</t>
+          <t>t-1006487935733174274</t>
         </is>
       </c>
       <c r="B453" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C453" t="n">
         <v>1</v>
@@ -6329,24 +6329,24 @@
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>t-653928809671081984</t>
+          <t>t-583674889480962049</t>
         </is>
       </c>
       <c r="B454" t="n">
         <v>0</v>
       </c>
       <c r="C454" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>t-629936150220685312</t>
+          <t>t-895521975434530816</t>
         </is>
       </c>
       <c r="B455" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C455" t="n">
         <v>0</v>
@@ -6355,63 +6355,63 @@
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>t-669507403621277696</t>
+          <t>t-895525136580923394</t>
         </is>
       </c>
       <c r="B456" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C456" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>t-669900887607898113</t>
+          <t>t-801458708786151425</t>
         </is>
       </c>
       <c r="B457" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C457" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>t-699529516008476673</t>
+          <t>t-594549643134009344</t>
         </is>
       </c>
       <c r="B458" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C458" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>t-820214611416928256</t>
+          <t>t-624613462476337152</t>
         </is>
       </c>
       <c r="B459" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C459" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>t-832880826807418880</t>
+          <t>t-624628271745998852</t>
         </is>
       </c>
       <c r="B460" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C460" t="n">
         <v>1</v>
@@ -6420,7 +6420,7 @@
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>t-972395558735368192</t>
+          <t>t-601387987851677696</t>
         </is>
       </c>
       <c r="B461" t="n">
@@ -6433,20 +6433,20 @@
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>t-1050114319227195392</t>
+          <t>t-601436583682703361</t>
         </is>
       </c>
       <c r="B462" t="n">
         <v>0</v>
       </c>
       <c r="C462" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>t-697699936171909120</t>
+          <t>t-916986223478140928</t>
         </is>
       </c>
       <c r="B463" t="n">
@@ -6459,24 +6459,24 @@
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>t-697706009293410304</t>
+          <t>t-1019348620489969664</t>
         </is>
       </c>
       <c r="B464" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C464" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>t-698055021934571520</t>
+          <t>t-1021061872274018305</t>
         </is>
       </c>
       <c r="B465" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C465" t="n">
         <v>0</v>
@@ -6485,7 +6485,7 @@
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>t-698056879210102784</t>
+          <t>t-760350969154723840</t>
         </is>
       </c>
       <c r="B466" t="n">
@@ -6498,7 +6498,7 @@
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>t-698065167305805824</t>
+          <t>t-884366275937521664</t>
         </is>
       </c>
       <c r="B467" t="n">
@@ -6511,7 +6511,7 @@
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>t-698086763601006593</t>
+          <t>t-623896530324467712</t>
         </is>
       </c>
       <c r="B468" t="n">
@@ -6524,7 +6524,7 @@
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>t-698453860554244096</t>
+          <t>t-1035170375703961601</t>
         </is>
       </c>
       <c r="B469" t="n">
@@ -6537,20 +6537,20 @@
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>t-707530442468098049</t>
+          <t>t-1035201829989056512</t>
         </is>
       </c>
       <c r="B470" t="n">
         <v>1</v>
       </c>
       <c r="C470" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>t-707587020831518720</t>
+          <t>t-1035614467998998530</t>
         </is>
       </c>
       <c r="B471" t="n">
@@ -6563,11 +6563,11 @@
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>t-575707186204180480</t>
+          <t>t-1038016191711928321</t>
         </is>
       </c>
       <c r="B472" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C472" t="n">
         <v>0</v>
@@ -6576,7 +6576,7 @@
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>t-731437259828924417</t>
+          <t>t-1038359113791680512</t>
         </is>
       </c>
       <c r="B473" t="n">
@@ -6589,20 +6589,20 @@
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>t-756468934379966464</t>
+          <t>t-880072530329038848</t>
         </is>
       </c>
       <c r="B474" t="n">
         <v>0</v>
       </c>
       <c r="C474" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>t-865160167155003392</t>
+          <t>t-652148120952803329</t>
         </is>
       </c>
       <c r="B475" t="n">
@@ -6615,46 +6615,46 @@
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>t-1024201138277638144</t>
+          <t>t-1004612435792232448</t>
         </is>
       </c>
       <c r="B476" t="n">
         <v>0</v>
       </c>
       <c r="C476" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>t-580746776262545409</t>
+          <t>t-671784280259866624</t>
         </is>
       </c>
       <c r="B477" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C477" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>t-837336632667877376</t>
+          <t>t-674905913438769153</t>
         </is>
       </c>
       <c r="B478" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C478" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>t-722410262058397697</t>
+          <t>t-808055620339384324</t>
         </is>
       </c>
       <c r="B479" t="n">
@@ -6667,33 +6667,33 @@
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>t-742289179535659008</t>
+          <t>t-687198236776464384</t>
         </is>
       </c>
       <c r="B480" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C480" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>t-743359058392940544</t>
+          <t>t-835605594534981633</t>
         </is>
       </c>
       <c r="B481" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C481" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>t-590431507967299584</t>
+          <t>t-835708598772727808</t>
         </is>
       </c>
       <c r="B482" t="n">
@@ -6706,7 +6706,7 @@
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>t-612970627083968512</t>
+          <t>t-715202576552169472</t>
         </is>
       </c>
       <c r="B483" t="n">
@@ -6719,7 +6719,7 @@
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>t-690751741676142592</t>
+          <t>t-852243165302198273</t>
         </is>
       </c>
       <c r="B484" t="n">
@@ -6732,11 +6732,11 @@
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>t-942758921533624320</t>
+          <t>t-963803678573547520</t>
         </is>
       </c>
       <c r="B485" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C485" t="n">
         <v>0</v>
@@ -6745,7 +6745,7 @@
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>t-593397061376147456</t>
+          <t>t-955134939699310592</t>
         </is>
       </c>
       <c r="B486" t="n">
@@ -6758,7 +6758,7 @@
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>t-624613462476337152</t>
+          <t>t-737976116753883136</t>
         </is>
       </c>
       <c r="B487" t="n">
@@ -6771,7 +6771,7 @@
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>t-624628271745998852</t>
+          <t>t-738434736910176256</t>
         </is>
       </c>
       <c r="B488" t="n">
@@ -6784,46 +6784,46 @@
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>t-608689054549471232</t>
+          <t>t-738019407536984064</t>
         </is>
       </c>
       <c r="B489" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C489" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>t-610036486059200513</t>
+          <t>t-738062401308917760</t>
         </is>
       </c>
       <c r="B490" t="n">
         <v>0</v>
       </c>
       <c r="C490" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>t-994824289349242881</t>
+          <t>t-738968020773703680</t>
         </is>
       </c>
       <c r="B491" t="n">
         <v>1</v>
       </c>
       <c r="C491" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>t-994897053523341314</t>
+          <t>t-739102239302770689</t>
         </is>
       </c>
       <c r="B492" t="n">
@@ -6836,50 +6836,50 @@
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>t-995019257841889281</t>
+          <t>t-739132972742418432</t>
         </is>
       </c>
       <c r="B493" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C493" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>t-995256568429064192</t>
+          <t>t-739365982360178688</t>
         </is>
       </c>
       <c r="B494" t="n">
         <v>1</v>
       </c>
       <c r="C494" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>t-1021061872274018305</t>
+          <t>t-739454625393324032</t>
         </is>
       </c>
       <c r="B495" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C495" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>t-760350969154723840</t>
+          <t>t-949338992599883776</t>
         </is>
       </c>
       <c r="B496" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C496" t="n">
         <v>0</v>
@@ -6888,89 +6888,89 @@
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>t-633506882188021761</t>
+          <t>t-949550500269166593</t>
         </is>
       </c>
       <c r="B497" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C497" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>t-900842879182131201</t>
+          <t>t-906057103172923392</t>
         </is>
       </c>
       <c r="B498" t="n">
         <v>1</v>
       </c>
       <c r="C498" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>t-1038016191711928321</t>
+          <t>t-740517137236647936</t>
         </is>
       </c>
       <c r="B499" t="n">
         <v>1</v>
       </c>
       <c r="C499" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>t-1038359113791680512</t>
+          <t>t-743445326611251200</t>
         </is>
       </c>
       <c r="B500" t="n">
         <v>1</v>
       </c>
       <c r="C500" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>t-880072530329038848</t>
+          <t>t-743816866171326464</t>
         </is>
       </c>
       <c r="B501" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C501" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>t-1056610127975997440</t>
+          <t>t-746386418465914880</t>
         </is>
       </c>
       <c r="B502" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C502" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>t-664402656019005440</t>
+          <t>t-765679686244454400</t>
         </is>
       </c>
       <c r="B503" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C503" t="n">
         <v>1</v>
@@ -6979,50 +6979,50 @@
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>t-666556746308198401</t>
+          <t>t-766238666905747456</t>
         </is>
       </c>
       <c r="B504" t="n">
         <v>1</v>
       </c>
       <c r="C504" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>t-674905913438769153</t>
+          <t>t-792319235351535616</t>
         </is>
       </c>
       <c r="B505" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C505" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>t-685089211784019968</t>
+          <t>t-795263551388663808</t>
         </is>
       </c>
       <c r="B506" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C506" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>t-829095437466533888</t>
+          <t>t-803544744215384064</t>
         </is>
       </c>
       <c r="B507" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C507" t="n">
         <v>0</v>
@@ -7031,11 +7031,11 @@
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>t-720951969716809728</t>
+          <t>t-906552804285861889</t>
         </is>
       </c>
       <c r="B508" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C508" t="n">
         <v>1</v>
@@ -7044,63 +7044,63 @@
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>t-957930793187397632</t>
+          <t>t-834802174559412225</t>
         </is>
       </c>
       <c r="B509" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C509" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>t-737703959993913344</t>
+          <t>t-960991499604328448</t>
         </is>
       </c>
       <c r="B510" t="n">
         <v>1</v>
       </c>
       <c r="C510" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>t-737753796202385408</t>
+          <t>t-862319925528023040</t>
         </is>
       </c>
       <c r="B511" t="n">
         <v>1</v>
       </c>
       <c r="C511" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>t-737755886211477504</t>
+          <t>t-862320640791121920</t>
         </is>
       </c>
       <c r="B512" t="n">
         <v>1</v>
       </c>
       <c r="C512" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>t-737784335567364096</t>
+          <t>t-836581914320506880</t>
         </is>
       </c>
       <c r="B513" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C513" t="n">
         <v>1</v>
@@ -7109,20 +7109,20 @@
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>t-737884729626791936</t>
+          <t>t-852898298344099840</t>
         </is>
       </c>
       <c r="B514" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C514" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>t-737979350088323072</t>
+          <t>t-887813365304705024</t>
         </is>
       </c>
       <c r="B515" t="n">
@@ -7135,20 +7135,20 @@
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>t-737766517157330945</t>
+          <t>t-970932114597335040</t>
         </is>
       </c>
       <c r="B516" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C516" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>t-737944067741454336</t>
+          <t>t-949248780280516608</t>
         </is>
       </c>
       <c r="B517" t="n">
@@ -7161,20 +7161,20 @@
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>t-956210090935312384</t>
+          <t>t-1043053295298899968</t>
         </is>
       </c>
       <c r="B518" t="n">
         <v>1</v>
       </c>
       <c r="C518" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>t-956914853922459649</t>
+          <t>t-1043072721595375616</t>
         </is>
       </c>
       <c r="B519" t="n">
@@ -7187,24 +7187,24 @@
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>t-957307123943256064</t>
+          <t>t-1043145723687129090</t>
         </is>
       </c>
       <c r="B520" t="n">
         <v>1</v>
       </c>
       <c r="C520" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>t-738762935133188098</t>
+          <t>t-845604671851057152</t>
         </is>
       </c>
       <c r="B521" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C521" t="n">
         <v>0</v>
@@ -7213,11 +7213,11 @@
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>t-739230360207261700</t>
+          <t>t-500549350234554368</t>
         </is>
       </c>
       <c r="B522" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C522" t="n">
         <v>0</v>
@@ -7226,102 +7226,102 @@
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>t-740264154712449024</t>
+          <t>t-512537797442273280</t>
         </is>
       </c>
       <c r="B523" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C523" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>t-1002274254954647552</t>
+          <t>t-529938272265703424</t>
         </is>
       </c>
       <c r="B524" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C524" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>t-1002283218085863430</t>
+          <t>t-532541340023017473</t>
         </is>
       </c>
       <c r="B525" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C525" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>t-740517137236647936</t>
+          <t>t-556228745443282944</t>
         </is>
       </c>
       <c r="B526" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C526" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>t-740666936263118848</t>
+          <t>t-557932086149918722</t>
         </is>
       </c>
       <c r="B527" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C527" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>t-743445326611251200</t>
+          <t>t-558466774392266752</t>
         </is>
       </c>
       <c r="B528" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C528" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>t-748138953241464832</t>
+          <t>t-558501767688642560</t>
         </is>
       </c>
       <c r="B529" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C529" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>t-766238666905747456</t>
+          <t>t-558892309320724482</t>
         </is>
       </c>
       <c r="B530" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C530" t="n">
         <v>1</v>
@@ -7330,20 +7330,20 @@
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>t-775906484295204864</t>
+          <t>t-559263075183104000</t>
         </is>
       </c>
       <c r="B531" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C531" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>t-834802174559412225</t>
+          <t>t-559573400780156928</t>
         </is>
       </c>
       <c r="B532" t="n">
@@ -7356,33 +7356,33 @@
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>t-831171283400409088</t>
+          <t>t-566257094865981440</t>
         </is>
       </c>
       <c r="B533" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C533" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>t-991723021709832193</t>
+          <t>t-627052129107087360</t>
         </is>
       </c>
       <c r="B534" t="n">
         <v>1</v>
       </c>
       <c r="C534" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>t-854059785049788419</t>
+          <t>t-627062516095455232</t>
         </is>
       </c>
       <c r="B535" t="n">
@@ -7395,20 +7395,20 @@
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>t-1019231079817973760</t>
+          <t>t-627070573118488576</t>
         </is>
       </c>
       <c r="B536" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C536" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>t-887201249715789824</t>
+          <t>t-627075912631083008</t>
         </is>
       </c>
       <c r="B537" t="n">
@@ -7421,11 +7421,11 @@
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>t-940225923332403204</t>
+          <t>t-627076573653561344</t>
         </is>
       </c>
       <c r="B538" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C538" t="n">
         <v>1</v>
@@ -7434,20 +7434,20 @@
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>t-940273268677849088</t>
+          <t>t-674391856298385408</t>
         </is>
       </c>
       <c r="B539" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C539" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>t-949248780280516608</t>
+          <t>t-674458539629219844</t>
         </is>
       </c>
       <c r="B540" t="n">
@@ -7460,11 +7460,11 @@
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>t-1004723222363955200</t>
+          <t>t-686071224749821953</t>
         </is>
       </c>
       <c r="B541" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C541" t="n">
         <v>1</v>
@@ -7473,7 +7473,7 @@
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>t-1017566472292495360</t>
+          <t>t-711861360414433281</t>
         </is>
       </c>
       <c r="B542" t="n">
@@ -7486,7 +7486,7 @@
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>t-904503608246362112</t>
+          <t>t-711871478451417088</t>
         </is>
       </c>
       <c r="B543" t="n">
@@ -7499,37 +7499,37 @@
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>t-931841011340296192</t>
+          <t>t-711899328244113408</t>
         </is>
       </c>
       <c r="B544" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C544" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>t-695965752088723456</t>
+          <t>t-712616490994892801</t>
         </is>
       </c>
       <c r="B545" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C545" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>t-695968588012752896</t>
+          <t>t-730666173340209152</t>
         </is>
       </c>
       <c r="B546" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C546" t="n">
         <v>1</v>
@@ -7538,11 +7538,11 @@
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>t-697436431816355840</t>
+          <t>t-740084104088199168</t>
         </is>
       </c>
       <c r="B547" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C547" t="n">
         <v>0</v>
@@ -7551,46 +7551,46 @@
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>t-697627864380809216</t>
+          <t>t-815395045314560000</t>
         </is>
       </c>
       <c r="B548" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C548" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>t-698371050527023104</t>
+          <t>t-815855888129028096</t>
         </is>
       </c>
       <c r="B549" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C549" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>t-698770244375093249</t>
+          <t>t-815865821570289668</t>
         </is>
       </c>
       <c r="B550" t="n">
         <v>1</v>
       </c>
       <c r="C550" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>t-711861360414433281</t>
+          <t>t-815882427159678976</t>
         </is>
       </c>
       <c r="B551" t="n">
@@ -7603,7 +7603,7 @@
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>t-711871478451417088</t>
+          <t>t-815960345336545280</t>
         </is>
       </c>
       <c r="B552" t="n">
@@ -7616,20 +7616,20 @@
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>t-711899328244113408</t>
+          <t>t-816280699388841984</t>
         </is>
       </c>
       <c r="B553" t="n">
         <v>1</v>
       </c>
       <c r="C553" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>t-712616490994892801</t>
+          <t>t-890567544695906304</t>
         </is>
       </c>
       <c r="B554" t="n">
@@ -7642,7 +7642,7 @@
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>t-719019371499130881</t>
+          <t>t-914672240901287936</t>
         </is>
       </c>
       <c r="B555" t="n">
@@ -7655,7 +7655,7 @@
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>t-740084104088199168</t>
+          <t>t-927545172220694528</t>
         </is>
       </c>
       <c r="B556" t="n">
@@ -7668,33 +7668,33 @@
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>t-831833976029454338</t>
+          <t>t-927729703523270657</t>
         </is>
       </c>
       <c r="B557" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C557" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>t-837558511772938241</t>
+          <t>t-927758071429939200</t>
         </is>
       </c>
       <c r="B558" t="n">
         <v>1</v>
       </c>
       <c r="C558" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>t-837704571640246272</t>
+          <t>t-927766985911312384</t>
         </is>
       </c>
       <c r="B559" t="n">
@@ -7707,7 +7707,7 @@
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>t-875288006172831744</t>
+          <t>t-928074662826745856</t>
         </is>
       </c>
       <c r="B560" t="n">
@@ -7720,33 +7720,33 @@
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>t-914672240901287936</t>
+          <t>t-928076971581378560</t>
         </is>
       </c>
       <c r="B561" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C561" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>t-918517038053814277</t>
+          <t>t-928123673919348741</t>
         </is>
       </c>
       <c r="B562" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C562" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>t-921445800072298496</t>
+          <t>t-928519035205095424</t>
         </is>
       </c>
       <c r="B563" t="n">
@@ -7759,20 +7759,20 @@
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>t-922085813818658816</t>
+          <t>t-928568681545728000</t>
         </is>
       </c>
       <c r="B564" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C564" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" t="inlineStr">
         <is>
-          <t>t-930305225726054400</t>
+          <t>t-928619706227023872</t>
         </is>
       </c>
       <c r="B565" t="n">
@@ -7785,20 +7785,20 @@
     <row r="566">
       <c r="A566" t="inlineStr">
         <is>
-          <t>t-935721877053505536</t>
+          <t>t-928900021390577664</t>
         </is>
       </c>
       <c r="B566" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C566" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" t="inlineStr">
         <is>
-          <t>t-499804424827457538</t>
+          <t>t-928909590627942400</t>
         </is>
       </c>
       <c r="B567" t="n">
@@ -7811,7 +7811,7 @@
     <row r="568">
       <c r="A568" t="inlineStr">
         <is>
-          <t>t-499826521846972416</t>
+          <t>t-928993443942105088</t>
         </is>
       </c>
       <c r="B568" t="n">
@@ -7824,7 +7824,7 @@
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>t-509160710316650496</t>
+          <t>t-947798399184785408</t>
         </is>
       </c>
       <c r="B569" t="n">
@@ -7837,7 +7837,7 @@
     <row r="570">
       <c r="A570" t="inlineStr">
         <is>
-          <t>t-509293535221145601</t>
+          <t>t-947806740518641664</t>
         </is>
       </c>
       <c r="B570" t="n">
@@ -7850,11 +7850,11 @@
     <row r="571">
       <c r="A571" t="inlineStr">
         <is>
-          <t>t-772650812623290373</t>
+          <t>t-947808691230822401</t>
         </is>
       </c>
       <c r="B571" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C571" t="n">
         <v>0</v>
@@ -7863,11 +7863,11 @@
     <row r="572">
       <c r="A572" t="inlineStr">
         <is>
-          <t>t-772781827224285184</t>
+          <t>t-947833275673747457</t>
         </is>
       </c>
       <c r="B572" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C572" t="n">
         <v>1</v>
@@ -7876,115 +7876,115 @@
     <row r="573">
       <c r="A573" t="inlineStr">
         <is>
-          <t>t-773074057805737984</t>
+          <t>t-948185680043155456</t>
         </is>
       </c>
       <c r="B573" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C573" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>t-857957864354086912</t>
+          <t>t-948407157803728896</t>
         </is>
       </c>
       <c r="B574" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C574" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" t="inlineStr">
         <is>
-          <t>t-857974981891719168</t>
+          <t>t-948721205443358720</t>
         </is>
       </c>
       <c r="B575" t="n">
         <v>1</v>
       </c>
       <c r="C575" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" t="inlineStr">
         <is>
-          <t>t-864437375618830336</t>
+          <t>t-948800260238815232</t>
         </is>
       </c>
       <c r="B576" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C576" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" t="inlineStr">
         <is>
-          <t>t-869476060991152129</t>
+          <t>t-948884291743870976</t>
         </is>
       </c>
       <c r="B577" t="n">
         <v>1</v>
       </c>
       <c r="C577" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" t="inlineStr">
         <is>
-          <t>t-503088287381082112</t>
+          <t>t-950179252325859328</t>
         </is>
       </c>
       <c r="B578" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C578" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" t="inlineStr">
         <is>
-          <t>t-532513757776183296</t>
+          <t>t-950592034162774021</t>
         </is>
       </c>
       <c r="B579" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C579" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" t="inlineStr">
         <is>
-          <t>t-561132509098827778</t>
+          <t>t-950680110948007937</t>
         </is>
       </c>
       <c r="B580" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C580" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" t="inlineStr">
         <is>
-          <t>t-583500409458688000</t>
+          <t>t-951371471217090560</t>
         </is>
       </c>
       <c r="B581" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C581" t="n">
         <v>1</v>
@@ -7993,7 +7993,7 @@
     <row r="582">
       <c r="A582" t="inlineStr">
         <is>
-          <t>t-583500450495795200</t>
+          <t>t-952033538005716993</t>
         </is>
       </c>
       <c r="B582" t="n">
@@ -8006,7 +8006,7 @@
     <row r="583">
       <c r="A583" t="inlineStr">
         <is>
-          <t>t-583501741481594881</t>
+          <t>t-952059671258447872</t>
         </is>
       </c>
       <c r="B583" t="n">
@@ -8019,7 +8019,7 @@
     <row r="584">
       <c r="A584" t="inlineStr">
         <is>
-          <t>t-583504251168497664</t>
+          <t>t-952061652182028289</t>
         </is>
       </c>
       <c r="B584" t="n">
@@ -8032,63 +8032,63 @@
     <row r="585">
       <c r="A585" t="inlineStr">
         <is>
-          <t>t-583504875067056129</t>
+          <t>t-952118349386850304</t>
         </is>
       </c>
       <c r="B585" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C585" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="586">
       <c r="A586" t="inlineStr">
         <is>
-          <t>t-584246834618474497</t>
+          <t>t-953168990901284865</t>
         </is>
       </c>
       <c r="B586" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C586" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="587">
       <c r="A587" t="inlineStr">
         <is>
-          <t>t-685773216275533824</t>
+          <t>t-970475324591915008</t>
         </is>
       </c>
       <c r="B587" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C587" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="588">
       <c r="A588" t="inlineStr">
         <is>
-          <t>t-708275780988473345</t>
+          <t>t-1031392016255647744</t>
         </is>
       </c>
       <c r="B588" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C588" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="589">
       <c r="A589" t="inlineStr">
         <is>
-          <t>t-709001129091174403</t>
+          <t>t-1061409798053224448</t>
         </is>
       </c>
       <c r="B589" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C589" t="n">
         <v>1</v>
@@ -8097,24 +8097,24 @@
     <row r="590">
       <c r="A590" t="inlineStr">
         <is>
-          <t>t-709281433978687488</t>
+          <t>t-1061535382406348800</t>
         </is>
       </c>
       <c r="B590" t="n">
         <v>1</v>
       </c>
       <c r="C590" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="591">
       <c r="A591" t="inlineStr">
         <is>
-          <t>t-718078465698881536</t>
+          <t>t-499804424827457538</t>
         </is>
       </c>
       <c r="B591" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C591" t="n">
         <v>1</v>
@@ -8123,7 +8123,7 @@
     <row r="592">
       <c r="A592" t="inlineStr">
         <is>
-          <t>t-718738885862232064</t>
+          <t>t-499826521846972416</t>
         </is>
       </c>
       <c r="B592" t="n">
@@ -8136,11 +8136,11 @@
     <row r="593">
       <c r="A593" t="inlineStr">
         <is>
-          <t>t-718790966774083584</t>
+          <t>t-710310372985741313</t>
         </is>
       </c>
       <c r="B593" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C593" t="n">
         <v>1</v>
@@ -8149,11 +8149,11 @@
     <row r="594">
       <c r="A594" t="inlineStr">
         <is>
-          <t>t-733931111152123906</t>
+          <t>t-718742884065759233</t>
         </is>
       </c>
       <c r="B594" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C594" t="n">
         <v>1</v>
@@ -8162,11 +8162,11 @@
     <row r="595">
       <c r="A595" t="inlineStr">
         <is>
-          <t>t-734714075603718144</t>
+          <t>t-782517721938300928</t>
         </is>
       </c>
       <c r="B595" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C595" t="n">
         <v>1</v>
@@ -8175,11 +8175,11 @@
     <row r="596">
       <c r="A596" t="inlineStr">
         <is>
-          <t>t-734767651981905921</t>
+          <t>t-820295860747542529</t>
         </is>
       </c>
       <c r="B596" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C596" t="n">
         <v>1</v>
@@ -8188,59 +8188,59 @@
     <row r="597">
       <c r="A597" t="inlineStr">
         <is>
-          <t>t-735043937040093185</t>
+          <t>t-820993538456289280</t>
         </is>
       </c>
       <c r="B597" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C597" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="598">
       <c r="A598" t="inlineStr">
         <is>
-          <t>t-749065341586726912</t>
+          <t>t-832449416082579456</t>
         </is>
       </c>
       <c r="B598" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C598" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="599">
       <c r="A599" t="inlineStr">
         <is>
-          <t>t-756020759726727169</t>
+          <t>t-916572694472155137</t>
         </is>
       </c>
       <c r="B599" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C599" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="600">
       <c r="A600" t="inlineStr">
         <is>
-          <t>t-764804167068024832</t>
+          <t>t-922122902136172545</t>
         </is>
       </c>
       <c r="B600" t="n">
         <v>0</v>
       </c>
       <c r="C600" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="601">
       <c r="A601" t="inlineStr">
         <is>
-          <t>t-792955986956824576</t>
+          <t>t-985916719981060097</t>
         </is>
       </c>
       <c r="B601" t="n">
@@ -8253,20 +8253,20 @@
     <row r="602">
       <c r="A602" t="inlineStr">
         <is>
-          <t>t-793029205319491584</t>
+          <t>t-985984041508720641</t>
         </is>
       </c>
       <c r="B602" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C602" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="603">
       <c r="A603" t="inlineStr">
         <is>
-          <t>t-793055195232018432</t>
+          <t>t-532513757776183296</t>
         </is>
       </c>
       <c r="B603" t="n">
@@ -8279,7 +8279,7 @@
     <row r="604">
       <c r="A604" t="inlineStr">
         <is>
-          <t>t-794478910901624834</t>
+          <t>t-545488523856338944</t>
         </is>
       </c>
       <c r="B604" t="n">
@@ -8292,11 +8292,11 @@
     <row r="605">
       <c r="A605" t="inlineStr">
         <is>
-          <t>t-794502218061750272</t>
+          <t>t-645905787584274433</t>
         </is>
       </c>
       <c r="B605" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C605" t="n">
         <v>1</v>
@@ -8305,20 +8305,20 @@
     <row r="606">
       <c r="A606" t="inlineStr">
         <is>
-          <t>t-799522784040849408</t>
+          <t>t-645928760433246209</t>
         </is>
       </c>
       <c r="B606" t="n">
         <v>1</v>
       </c>
       <c r="C606" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="607">
       <c r="A607" t="inlineStr">
         <is>
-          <t>t-807384780572459008</t>
+          <t>t-645952188204761088</t>
         </is>
       </c>
       <c r="B607" t="n">
@@ -8331,7 +8331,7 @@
     <row r="608">
       <c r="A608" t="inlineStr">
         <is>
-          <t>t-834984646416842753</t>
+          <t>t-646249606892797957</t>
         </is>
       </c>
       <c r="B608" t="n">
@@ -8344,20 +8344,20 @@
     <row r="609">
       <c r="A609" t="inlineStr">
         <is>
-          <t>t-834986851718946816</t>
+          <t>t-666604346558271489</t>
         </is>
       </c>
       <c r="B609" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C609" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="610">
       <c r="A610" t="inlineStr">
         <is>
-          <t>t-835051963096121344</t>
+          <t>t-667233953934282752</t>
         </is>
       </c>
       <c r="B610" t="n">
@@ -8370,7 +8370,7 @@
     <row r="611">
       <c r="A611" t="inlineStr">
         <is>
-          <t>t-845583720950128640</t>
+          <t>t-718078465698881536</t>
         </is>
       </c>
       <c r="B611" t="n">
@@ -8383,7 +8383,7 @@
     <row r="612">
       <c r="A612" t="inlineStr">
         <is>
-          <t>t-857545859868708865</t>
+          <t>t-718738885862232064</t>
         </is>
       </c>
       <c r="B612" t="n">
@@ -8396,7 +8396,7 @@
     <row r="613">
       <c r="A613" t="inlineStr">
         <is>
-          <t>t-863988808966053888</t>
+          <t>t-718790966774083584</t>
         </is>
       </c>
       <c r="B613" t="n">
@@ -8409,7 +8409,7 @@
     <row r="614">
       <c r="A614" t="inlineStr">
         <is>
-          <t>t-931079635575586816</t>
+          <t>t-732021013433724928</t>
         </is>
       </c>
       <c r="B614" t="n">
@@ -8422,11 +8422,11 @@
     <row r="615">
       <c r="A615" t="inlineStr">
         <is>
-          <t>t-931432910795653120</t>
+          <t>t-732494989838540800</t>
         </is>
       </c>
       <c r="B615" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C615" t="n">
         <v>1</v>
@@ -8435,20 +8435,20 @@
     <row r="616">
       <c r="A616" t="inlineStr">
         <is>
-          <t>t-932133115748696064</t>
+          <t>t-732496065941798912</t>
         </is>
       </c>
       <c r="B616" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C616" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="617">
       <c r="A617" t="inlineStr">
         <is>
-          <t>t-932454853443334144</t>
+          <t>t-749065341586726912</t>
         </is>
       </c>
       <c r="B617" t="n">
@@ -8461,20 +8461,20 @@
     <row r="618">
       <c r="A618" t="inlineStr">
         <is>
-          <t>t-965199790966415360</t>
+          <t>t-764804167068024832</t>
         </is>
       </c>
       <c r="B618" t="n">
         <v>0</v>
       </c>
       <c r="C618" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="619">
       <c r="A619" t="inlineStr">
         <is>
-          <t>t-976030387188137984</t>
+          <t>t-769774311968079872</t>
         </is>
       </c>
       <c r="B619" t="n">
@@ -8487,7 +8487,7 @@
     <row r="620">
       <c r="A620" t="inlineStr">
         <is>
-          <t>t-976030855033319425</t>
+          <t>t-789409624138985476</t>
         </is>
       </c>
       <c r="B620" t="n">
@@ -8500,7 +8500,7 @@
     <row r="621">
       <c r="A621" t="inlineStr">
         <is>
-          <t>t-976037405776990208</t>
+          <t>t-789409631646785537</t>
         </is>
       </c>
       <c r="B621" t="n">
@@ -8513,7 +8513,7 @@
     <row r="622">
       <c r="A622" t="inlineStr">
         <is>
-          <t>t-1061598368164528128</t>
+          <t>t-796319752176009216</t>
         </is>
       </c>
       <c r="B622" t="n">
@@ -8526,7 +8526,7 @@
     <row r="623">
       <c r="A623" t="inlineStr">
         <is>
-          <t>t-1061625768696930304</t>
+          <t>t-796346157156864001</t>
         </is>
       </c>
       <c r="B623" t="n">
@@ -8539,7 +8539,7 @@
     <row r="624">
       <c r="A624" t="inlineStr">
         <is>
-          <t>t-1061782167494320130</t>
+          <t>t-796369433241403393</t>
         </is>
       </c>
       <c r="B624" t="n">
@@ -8552,7 +8552,7 @@
     <row r="625">
       <c r="A625" t="inlineStr">
         <is>
-          <t>t-1062219458046058496</t>
+          <t>t-796693709639168001</t>
         </is>
       </c>
       <c r="B625" t="n">
@@ -8565,7 +8565,7 @@
     <row r="626">
       <c r="A626" t="inlineStr">
         <is>
-          <t>t-839656521227091969</t>
+          <t>t-797722245741223936</t>
         </is>
       </c>
       <c r="B626" t="n">
@@ -8578,7 +8578,7 @@
     <row r="627">
       <c r="A627" t="inlineStr">
         <is>
-          <t>t-546954418067738625</t>
+          <t>t-797729987348418561</t>
         </is>
       </c>
       <c r="B627" t="n">
@@ -8591,7 +8591,7 @@
     <row r="628">
       <c r="A628" t="inlineStr">
         <is>
-          <t>t-547052080943214593</t>
+          <t>t-797771440128860162</t>
         </is>
       </c>
       <c r="B628" t="n">
@@ -8604,7 +8604,7 @@
     <row r="629">
       <c r="A629" t="inlineStr">
         <is>
-          <t>t-547052404026249217</t>
+          <t>t-797771478930366464</t>
         </is>
       </c>
       <c r="B629" t="n">
@@ -8617,7 +8617,7 @@
     <row r="630">
       <c r="A630" t="inlineStr">
         <is>
-          <t>t-547288951820521472</t>
+          <t>t-797792110535528448</t>
         </is>
       </c>
       <c r="B630" t="n">
@@ -8630,20 +8630,20 @@
     <row r="631">
       <c r="A631" t="inlineStr">
         <is>
-          <t>t-547333815882887168</t>
+          <t>t-798105876364029953</t>
         </is>
       </c>
       <c r="B631" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C631" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="632">
       <c r="A632" t="inlineStr">
         <is>
-          <t>t-547368132457689088</t>
+          <t>t-828522614863785984</t>
         </is>
       </c>
       <c r="B632" t="n">
@@ -8656,59 +8656,59 @@
     <row r="633">
       <c r="A633" t="inlineStr">
         <is>
-          <t>t-547431547935412224</t>
+          <t>t-842271490141634560</t>
         </is>
       </c>
       <c r="B633" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C633" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="634">
       <c r="A634" t="inlineStr">
         <is>
-          <t>t-547610562692009985</t>
+          <t>t-842322052103122944</t>
         </is>
       </c>
       <c r="B634" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C634" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="635">
       <c r="A635" t="inlineStr">
         <is>
-          <t>t-547694551637700608</t>
+          <t>t-842905808266448896</t>
         </is>
       </c>
       <c r="B635" t="n">
         <v>1</v>
       </c>
       <c r="C635" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="636">
       <c r="A636" t="inlineStr">
         <is>
-          <t>t-550981789649735680</t>
+          <t>t-842910185718931456</t>
         </is>
       </c>
       <c r="B636" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C636" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="637">
       <c r="A637" t="inlineStr">
         <is>
-          <t>t-592295516517502976</t>
+          <t>t-870517868831449088</t>
         </is>
       </c>
       <c r="B637" t="n">
@@ -8721,20 +8721,20 @@
     <row r="638">
       <c r="A638" t="inlineStr">
         <is>
-          <t>t-664725934935707650</t>
+          <t>t-931079635575586816</t>
         </is>
       </c>
       <c r="B638" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C638" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="639">
       <c r="A639" t="inlineStr">
         <is>
-          <t>t-689784474884648961</t>
+          <t>t-931432910795653120</t>
         </is>
       </c>
       <c r="B639" t="n">
@@ -8747,20 +8747,20 @@
     <row r="640">
       <c r="A640" t="inlineStr">
         <is>
-          <t>t-768634144851013633</t>
+          <t>t-932133115748696064</t>
         </is>
       </c>
       <c r="B640" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C640" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="641">
       <c r="A641" t="inlineStr">
         <is>
-          <t>t-769506262551715840</t>
+          <t>t-932454853443334144</t>
         </is>
       </c>
       <c r="B641" t="n">
@@ -8773,7 +8773,7 @@
     <row r="642">
       <c r="A642" t="inlineStr">
         <is>
-          <t>t-788398448508739585</t>
+          <t>t-987647411144220672</t>
         </is>
       </c>
       <c r="B642" t="n">
@@ -8786,7 +8786,7 @@
     <row r="643">
       <c r="A643" t="inlineStr">
         <is>
-          <t>t-788457694453637120</t>
+          <t>t-831995329318772736</t>
         </is>
       </c>
       <c r="B643" t="n">
@@ -8799,20 +8799,20 @@
     <row r="644">
       <c r="A644" t="inlineStr">
         <is>
-          <t>t-936830929384828928</t>
+          <t>t-930049646444945408</t>
         </is>
       </c>
       <c r="B644" t="n">
         <v>1</v>
       </c>
       <c r="C644" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="645">
       <c r="A645" t="inlineStr">
         <is>
-          <t>t-936988511051292672</t>
+          <t>t-930646694097645568</t>
         </is>
       </c>
       <c r="B645" t="n">
@@ -8825,7 +8825,7 @@
     <row r="646">
       <c r="A646" t="inlineStr">
         <is>
-          <t>t-1028122158990381056</t>
+          <t>t-518708677113438208</t>
         </is>
       </c>
       <c r="B646" t="n">
@@ -8838,7 +8838,7 @@
     <row r="647">
       <c r="A647" t="inlineStr">
         <is>
-          <t>t-521700184376770560</t>
+          <t>t-592295516517502976</t>
         </is>
       </c>
       <c r="B647" t="n">
@@ -8851,7 +8851,7 @@
     <row r="648">
       <c r="A648" t="inlineStr">
         <is>
-          <t>t-551339874838908928</t>
+          <t>t-689784474884648961</t>
         </is>
       </c>
       <c r="B648" t="n">
@@ -8864,7 +8864,7 @@
     <row r="649">
       <c r="A649" t="inlineStr">
         <is>
-          <t>t-757366725759242240</t>
+          <t>t-795674749028462592</t>
         </is>
       </c>
       <c r="B649" t="n">
@@ -8877,33 +8877,33 @@
     <row r="650">
       <c r="A650" t="inlineStr">
         <is>
-          <t>t-757494302339571712</t>
+          <t>t-853130130432176128</t>
         </is>
       </c>
       <c r="B650" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C650" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="651">
       <c r="A651" t="inlineStr">
         <is>
-          <t>t-757771911346749441</t>
+          <t>t-902843730587115520</t>
         </is>
       </c>
       <c r="B651" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C651" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="652">
       <c r="A652" t="inlineStr">
         <is>
-          <t>t-757882635976790016</t>
+          <t>t-555323393890058240</t>
         </is>
       </c>
       <c r="B652" t="n">
@@ -8916,7 +8916,7 @@
     <row r="653">
       <c r="A653" t="inlineStr">
         <is>
-          <t>t-758521629890650113</t>
+          <t>t-555327376440053760</t>
         </is>
       </c>
       <c r="B653" t="n">
@@ -8929,37 +8929,37 @@
     <row r="654">
       <c r="A654" t="inlineStr">
         <is>
-          <t>t-777029515289563136</t>
+          <t>t-565428032685740033</t>
         </is>
       </c>
       <c r="B654" t="n">
         <v>1</v>
       </c>
       <c r="C654" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="655">
       <c r="A655" t="inlineStr">
         <is>
-          <t>t-777052253362335745</t>
+          <t>t-740483903366926337</t>
         </is>
       </c>
       <c r="B655" t="n">
         <v>1</v>
       </c>
       <c r="C655" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="656">
       <c r="A656" t="inlineStr">
         <is>
-          <t>t-799444908029284352</t>
+          <t>t-830684745323327488</t>
         </is>
       </c>
       <c r="B656" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C656" t="n">
         <v>1</v>
@@ -8968,24 +8968,24 @@
     <row r="657">
       <c r="A657" t="inlineStr">
         <is>
-          <t>t-799480577057583104</t>
+          <t>t-558428892898131968</t>
         </is>
       </c>
       <c r="B657" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C657" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="658">
       <c r="A658" t="inlineStr">
         <is>
-          <t>t-673010347008110593</t>
+          <t>t-558596887519850496</t>
         </is>
       </c>
       <c r="B658" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C658" t="n">
         <v>1</v>
@@ -8994,11 +8994,11 @@
     <row r="659">
       <c r="A659" t="inlineStr">
         <is>
-          <t>t-703773712068116482</t>
+          <t>t-697703131493355520</t>
         </is>
       </c>
       <c r="B659" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C659" t="n">
         <v>0</v>
@@ -9007,7 +9007,7 @@
     <row r="660">
       <c r="A660" t="inlineStr">
         <is>
-          <t>t-703855663269556224</t>
+          <t>t-698358832959873025</t>
         </is>
       </c>
       <c r="B660" t="n">
@@ -9020,7 +9020,7 @@
     <row r="661">
       <c r="A661" t="inlineStr">
         <is>
-          <t>t-703940411761389571</t>
+          <t>t-534644762553229312</t>
         </is>
       </c>
       <c r="B661" t="n">
@@ -9033,11 +9033,11 @@
     <row r="662">
       <c r="A662" t="inlineStr">
         <is>
-          <t>t-817285829861093377</t>
+          <t>t-535211715454332929</t>
         </is>
       </c>
       <c r="B662" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C662" t="n">
         <v>1</v>
@@ -9046,20 +9046,20 @@
     <row r="663">
       <c r="A663" t="inlineStr">
         <is>
-          <t>t-803451448700780544</t>
+          <t>t-535234909267578880</t>
         </is>
       </c>
       <c r="B663" t="n">
         <v>1</v>
       </c>
       <c r="C663" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="664">
       <c r="A664" t="inlineStr">
         <is>
-          <t>t-803454039333556224</t>
+          <t>t-535323782999977985</t>
         </is>
       </c>
       <c r="B664" t="n">
@@ -9072,11 +9072,11 @@
     <row r="665">
       <c r="A665" t="inlineStr">
         <is>
-          <t>t-803455995494027264</t>
+          <t>t-536050657384333312</t>
         </is>
       </c>
       <c r="B665" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C665" t="n">
         <v>0</v>
@@ -9085,11 +9085,11 @@
     <row r="666">
       <c r="A666" t="inlineStr">
         <is>
-          <t>t-803466221962215424</t>
+          <t>t-536689861890035712</t>
         </is>
       </c>
       <c r="B666" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C666" t="n">
         <v>0</v>
@@ -9098,7 +9098,7 @@
     <row r="667">
       <c r="A667" t="inlineStr">
         <is>
-          <t>t-803470959600467968</t>
+          <t>t-803451448700780544</t>
         </is>
       </c>
       <c r="B667" t="n">
@@ -9111,59 +9111,59 @@
     <row r="668">
       <c r="A668" t="inlineStr">
         <is>
-          <t>t-540776934658277377</t>
+          <t>t-803454039333556224</t>
         </is>
       </c>
       <c r="B668" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C668" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="669">
       <c r="A669" t="inlineStr">
         <is>
-          <t>t-636337860757483520</t>
+          <t>t-803455995494027264</t>
         </is>
       </c>
       <c r="B669" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C669" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="670">
       <c r="A670" t="inlineStr">
         <is>
-          <t>t-695999176518184960</t>
+          <t>t-803466221962215424</t>
         </is>
       </c>
       <c r="B670" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C670" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="671">
       <c r="A671" t="inlineStr">
         <is>
-          <t>t-715026472285708288</t>
+          <t>t-803470959600467968</t>
         </is>
       </c>
       <c r="B671" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C671" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="672">
       <c r="A672" t="inlineStr">
         <is>
-          <t>t-773077201063407617</t>
+          <t>t-924811540154540032</t>
         </is>
       </c>
       <c r="B672" t="n">
@@ -9176,7 +9176,7 @@
     <row r="673">
       <c r="A673" t="inlineStr">
         <is>
-          <t>t-785106169677230080</t>
+          <t>t-924943312192073729</t>
         </is>
       </c>
       <c r="B673" t="n">
@@ -9189,7 +9189,7 @@
     <row r="674">
       <c r="A674" t="inlineStr">
         <is>
-          <t>t-785108107227561984</t>
+          <t>t-935391382331588609</t>
         </is>
       </c>
       <c r="B674" t="n">
@@ -9202,7 +9202,7 @@
     <row r="675">
       <c r="A675" t="inlineStr">
         <is>
-          <t>t-785110315553787904</t>
+          <t>t-935397608851324931</t>
         </is>
       </c>
       <c r="B675" t="n">
@@ -9215,11 +9215,11 @@
     <row r="676">
       <c r="A676" t="inlineStr">
         <is>
-          <t>t-785111654228856832</t>
+          <t>t-935407791757389824</t>
         </is>
       </c>
       <c r="B676" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C676" t="n">
         <v>1</v>
@@ -9228,7 +9228,7 @@
     <row r="677">
       <c r="A677" t="inlineStr">
         <is>
-          <t>t-785153740848308225</t>
+          <t>t-928119470215847936</t>
         </is>
       </c>
       <c r="B677" t="n">
@@ -9241,11 +9241,11 @@
     <row r="678">
       <c r="A678" t="inlineStr">
         <is>
-          <t>t-785284230573993984</t>
+          <t>t-709944298301628416</t>
         </is>
       </c>
       <c r="B678" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C678" t="n">
         <v>1</v>
@@ -9254,7 +9254,7 @@
     <row r="679">
       <c r="A679" t="inlineStr">
         <is>
-          <t>t-785337680368467968</t>
+          <t>t-737185619730780161</t>
         </is>
       </c>
       <c r="B679" t="n">
@@ -9267,33 +9267,33 @@
     <row r="680">
       <c r="A680" t="inlineStr">
         <is>
-          <t>t-785343194607202304</t>
+          <t>t-753418052503502848</t>
         </is>
       </c>
       <c r="B680" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C680" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="681">
       <c r="A681" t="inlineStr">
         <is>
-          <t>t-785389967123984386</t>
+          <t>t-776553403992252416</t>
         </is>
       </c>
       <c r="B681" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C681" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="682">
       <c r="A682" t="inlineStr">
         <is>
-          <t>t-786190856218746880</t>
+          <t>t-776953291594866688</t>
         </is>
       </c>
       <c r="B682" t="n">
@@ -9306,7 +9306,7 @@
     <row r="683">
       <c r="A683" t="inlineStr">
         <is>
-          <t>t-786491706409492481</t>
+          <t>t-776996787567464448</t>
         </is>
       </c>
       <c r="B683" t="n">
@@ -9319,11 +9319,11 @@
     <row r="684">
       <c r="A684" t="inlineStr">
         <is>
-          <t>t-544020486527528960</t>
+          <t>t-777018247778631680</t>
         </is>
       </c>
       <c r="B684" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C684" t="n">
         <v>1</v>
@@ -9332,7 +9332,7 @@
     <row r="685">
       <c r="A685" t="inlineStr">
         <is>
-          <t>t-567587172367077376</t>
+          <t>t-777139839556648960</t>
         </is>
       </c>
       <c r="B685" t="n">
@@ -9345,7 +9345,7 @@
     <row r="686">
       <c r="A686" t="inlineStr">
         <is>
-          <t>t-547361002212188160</t>
+          <t>t-777163982893223936</t>
         </is>
       </c>
       <c r="B686" t="n">
@@ -9358,11 +9358,11 @@
     <row r="687">
       <c r="A687" t="inlineStr">
         <is>
-          <t>t-557074144505114625</t>
+          <t>t-779194196724887553</t>
         </is>
       </c>
       <c r="B687" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C687" t="n">
         <v>1</v>
@@ -9371,7 +9371,7 @@
     <row r="688">
       <c r="A688" t="inlineStr">
         <is>
-          <t>t-814411097864159233</t>
+          <t>t-1060932314279170048</t>
         </is>
       </c>
       <c r="B688" t="n">
@@ -9384,7 +9384,7 @@
     <row r="689">
       <c r="A689" t="inlineStr">
         <is>
-          <t>t-814414402203983872</t>
+          <t>t-666482399069343745</t>
         </is>
       </c>
       <c r="B689" t="n">
@@ -9397,7 +9397,7 @@
     <row r="690">
       <c r="A690" t="inlineStr">
         <is>
-          <t>t-814417111921479680</t>
+          <t>t-692022677649797120</t>
         </is>
       </c>
       <c r="B690" t="n">
@@ -9410,7 +9410,7 @@
     <row r="691">
       <c r="A691" t="inlineStr">
         <is>
-          <t>t-814418757657296896</t>
+          <t>t-820399938416754688</t>
         </is>
       </c>
       <c r="B691" t="n">
@@ -9423,20 +9423,20 @@
     <row r="692">
       <c r="A692" t="inlineStr">
         <is>
-          <t>t-814543705935736832</t>
+          <t>t-734985227739619329</t>
         </is>
       </c>
       <c r="B692" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C692" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="693">
       <c r="A693" t="inlineStr">
         <is>
-          <t>t-1037871134488707072</t>
+          <t>t-823731915236708352</t>
         </is>
       </c>
       <c r="B693" t="n">
@@ -9449,7 +9449,7 @@
     <row r="694">
       <c r="A694" t="inlineStr">
         <is>
-          <t>t-1037879643695529985</t>
+          <t>t-812248571802025984</t>
         </is>
       </c>
       <c r="B694" t="n">
@@ -9462,7 +9462,7 @@
     <row r="695">
       <c r="A695" t="inlineStr">
         <is>
-          <t>t-1037893136482103296</t>
+          <t>t-966644863226732544</t>
         </is>
       </c>
       <c r="B695" t="n">
@@ -9475,7 +9475,7 @@
     <row r="696">
       <c r="A696" t="inlineStr">
         <is>
-          <t>t-1037997508973060096</t>
+          <t>t-966649635170238465</t>
         </is>
       </c>
       <c r="B696" t="n">
@@ -9488,20 +9488,20 @@
     <row r="697">
       <c r="A697" t="inlineStr">
         <is>
-          <t>t-555130566706622465</t>
+          <t>t-557074144505114625</t>
         </is>
       </c>
       <c r="B697" t="n">
         <v>1</v>
       </c>
       <c r="C697" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="698">
       <c r="A698" t="inlineStr">
         <is>
-          <t>t-564756286211100672</t>
+          <t>t-1027038929319411712</t>
         </is>
       </c>
       <c r="B698" t="n">
@@ -9514,7 +9514,7 @@
     <row r="699">
       <c r="A699" t="inlineStr">
         <is>
-          <t>t-565303060420112386</t>
+          <t>t-1027057881365901312</t>
         </is>
       </c>
       <c r="B699" t="n">
@@ -9527,11 +9527,11 @@
     <row r="700">
       <c r="A700" t="inlineStr">
         <is>
-          <t>t-565336619021262848</t>
+          <t>t-1027179632922046467</t>
         </is>
       </c>
       <c r="B700" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C700" t="n">
         <v>1</v>
@@ -9540,20 +9540,20 @@
     <row r="701">
       <c r="A701" t="inlineStr">
         <is>
-          <t>t-658189046523412480</t>
+          <t>t-703883305427427329</t>
         </is>
       </c>
       <c r="B701" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C701" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="702">
       <c r="A702" t="inlineStr">
         <is>
-          <t>t-935764445632061440</t>
+          <t>t-704164134657486848</t>
         </is>
       </c>
       <c r="B702" t="n">
@@ -9566,24 +9566,24 @@
     <row r="703">
       <c r="A703" t="inlineStr">
         <is>
-          <t>t-946271534502395905</t>
+          <t>t-941661763132579840</t>
         </is>
       </c>
       <c r="B703" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C703" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="704">
       <c r="A704" t="inlineStr">
         <is>
-          <t>t-895185499131961344</t>
+          <t>t-558523740888109056</t>
         </is>
       </c>
       <c r="B704" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C704" t="n">
         <v>1</v>
@@ -9592,11 +9592,11 @@
     <row r="705">
       <c r="A705" t="inlineStr">
         <is>
-          <t>t-950566545595551745</t>
+          <t>t-594000547591553024</t>
         </is>
       </c>
       <c r="B705" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C705" t="n">
         <v>0</v>
@@ -9605,11 +9605,11 @@
     <row r="706">
       <c r="A706" t="inlineStr">
         <is>
-          <t>t-954254379967660032</t>
+          <t>t-594263552824741888</t>
         </is>
       </c>
       <c r="B706" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C706" t="n">
         <v>1</v>
@@ -9618,11 +9618,11 @@
     <row r="707">
       <c r="A707" t="inlineStr">
         <is>
-          <t>t-638407777333850112</t>
+          <t>t-594718318050684929</t>
         </is>
       </c>
       <c r="B707" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C707" t="n">
         <v>0</v>
@@ -9631,11 +9631,11 @@
     <row r="708">
       <c r="A708" t="inlineStr">
         <is>
-          <t>t-905053100729356288</t>
+          <t>t-595757559006507011</t>
         </is>
       </c>
       <c r="B708" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C708" t="n">
         <v>1</v>
@@ -9644,20 +9644,20 @@
     <row r="709">
       <c r="A709" t="inlineStr">
         <is>
-          <t>t-932461262268661760</t>
+          <t>t-697434910303264773</t>
         </is>
       </c>
       <c r="B709" t="n">
         <v>1</v>
       </c>
       <c r="C709" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="710">
       <c r="A710" t="inlineStr">
         <is>
-          <t>t-932590015711993858</t>
+          <t>t-704474821959163905</t>
         </is>
       </c>
       <c r="B710" t="n">
@@ -9670,11 +9670,11 @@
     <row r="711">
       <c r="A711" t="inlineStr">
         <is>
-          <t>t-932596112241786880</t>
+          <t>t-839272244895309824</t>
         </is>
       </c>
       <c r="B711" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C711" t="n">
         <v>1</v>
@@ -9683,7 +9683,7 @@
     <row r="712">
       <c r="A712" t="inlineStr">
         <is>
-          <t>t-932690981908074496</t>
+          <t>t-935764445632061440</t>
         </is>
       </c>
       <c r="B712" t="n">
@@ -9696,33 +9696,33 @@
     <row r="713">
       <c r="A713" t="inlineStr">
         <is>
-          <t>t-932881287005835264</t>
+          <t>t-895185499131961344</t>
         </is>
       </c>
       <c r="B713" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C713" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="714">
       <c r="A714" t="inlineStr">
         <is>
-          <t>t-566151747232489472</t>
+          <t>t-1016952321333497856</t>
         </is>
       </c>
       <c r="B714" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C714" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="715">
       <c r="A715" t="inlineStr">
         <is>
-          <t>t-674136729771577344</t>
+          <t>t-701328466483027968</t>
         </is>
       </c>
       <c r="B715" t="n">
@@ -9735,20 +9735,20 @@
     <row r="716">
       <c r="A716" t="inlineStr">
         <is>
-          <t>t-677428252881784832</t>
+          <t>t-979975965760720898</t>
         </is>
       </c>
       <c r="B716" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C716" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="717">
       <c r="A717" t="inlineStr">
         <is>
-          <t>t-753509017096364033</t>
+          <t>t-579242361768677376</t>
         </is>
       </c>
       <c r="B717" t="n">
@@ -9761,11 +9761,11 @@
     <row r="718">
       <c r="A718" t="inlineStr">
         <is>
-          <t>t-843318937064366080</t>
+          <t>t-729241413867556864</t>
         </is>
       </c>
       <c r="B718" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C718" t="n">
         <v>1</v>
@@ -9774,24 +9774,24 @@
     <row r="719">
       <c r="A719" t="inlineStr">
         <is>
-          <t>t-998772384076320768</t>
+          <t>t-935268837662052353</t>
         </is>
       </c>
       <c r="B719" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C719" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="720">
       <c r="A720" t="inlineStr">
         <is>
-          <t>t-998825906733920257</t>
+          <t>t-935313787321585664</t>
         </is>
       </c>
       <c r="B720" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C720" t="n">
         <v>1</v>
@@ -9800,11 +9800,11 @@
     <row r="721">
       <c r="A721" t="inlineStr">
         <is>
-          <t>t-765452831297970176</t>
+          <t>t-935539265307660289</t>
         </is>
       </c>
       <c r="B721" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C721" t="n">
         <v>1</v>
@@ -9813,46 +9813,46 @@
     <row r="722">
       <c r="A722" t="inlineStr">
         <is>
-          <t>t-833819761821757440</t>
+          <t>t-935690311879282688</t>
         </is>
       </c>
       <c r="B722" t="n">
         <v>1</v>
       </c>
       <c r="C722" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="723">
       <c r="A723" t="inlineStr">
         <is>
-          <t>t-935417453286326277</t>
+          <t>t-936855089326604288</t>
         </is>
       </c>
       <c r="B723" t="n">
         <v>1</v>
       </c>
       <c r="C723" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="724">
       <c r="A724" t="inlineStr">
         <is>
-          <t>t-639809419102937088</t>
+          <t>t-568062001399746560</t>
         </is>
       </c>
       <c r="B724" t="n">
         <v>1</v>
       </c>
       <c r="C724" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="725">
       <c r="A725" t="inlineStr">
         <is>
-          <t>t-837085298324619265</t>
+          <t>t-833819761821757440</t>
         </is>
       </c>
       <c r="B725" t="n">
@@ -9865,7 +9865,7 @@
     <row r="726">
       <c r="A726" t="inlineStr">
         <is>
-          <t>t-1062157078439968770</t>
+          <t>t-610619808913076224</t>
         </is>
       </c>
       <c r="B726" t="n">
@@ -9878,20 +9878,20 @@
     <row r="727">
       <c r="A727" t="inlineStr">
         <is>
-          <t>t-786434119072821249</t>
+          <t>t-792051379564969985</t>
         </is>
       </c>
       <c r="B727" t="n">
         <v>1</v>
       </c>
       <c r="C727" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="728">
       <c r="A728" t="inlineStr">
         <is>
-          <t>t-964014223184375808</t>
+          <t>t-702431733740920832</t>
         </is>
       </c>
       <c r="B728" t="n">
@@ -9904,7 +9904,7 @@
     <row r="729">
       <c r="A729" t="inlineStr">
         <is>
-          <t>t-797677972547219456</t>
+          <t>t-702439207684464640</t>
         </is>
       </c>
       <c r="B729" t="n">
@@ -9917,7 +9917,7 @@
     <row r="730">
       <c r="A730" t="inlineStr">
         <is>
-          <t>t-798490523820380160</t>
+          <t>t-786434119072821249</t>
         </is>
       </c>
       <c r="B730" t="n">
@@ -9930,13 +9930,26 @@
     <row r="731">
       <c r="A731" t="inlineStr">
         <is>
-          <t>t-816256005461987328</t>
+          <t>t-760724447745699841</t>
         </is>
       </c>
       <c r="B731" t="n">
         <v>1</v>
       </c>
       <c r="C731" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732" t="inlineStr">
+        <is>
+          <t>t-798490523820380160</t>
+        </is>
+      </c>
+      <c r="B732" t="n">
+        <v>1</v>
+      </c>
+      <c r="C732" t="n">
         <v>1</v>
       </c>
     </row>
